--- a/Axcels/camery.xlsx
+++ b/Axcels/camery.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23074" windowHeight="13440" activeTab="4"/>
+    <workbookView windowWidth="13815" windowHeight="13230" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="fonk" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
   <si>
     <t xml:space="preserve"> Z</t>
   </si>
@@ -307,16 +307,40 @@
   <si>
     <t>H</t>
   </si>
+  <si>
+    <t>console.write</t>
+  </si>
+  <si>
+    <t>splite</t>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>substring</t>
+  </si>
+  <si>
+    <t>calcuate</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>execute</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -417,6 +441,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -425,30 +479,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -468,24 +517,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -493,7 +526,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,17 +540,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,15 +550,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,31 +812,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,7 +854,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,37 +908,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,19 +920,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,13 +986,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -976,8 +1004,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -993,30 +1021,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1045,17 +1049,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1067,10 +1091,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="45" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="52" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1079,7 +1103,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1088,70 +1112,70 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="52" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="56" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="46" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="46" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="42" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1160,52 +1184,52 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1965,20 +1989,20 @@
   <sheetPr/>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="3.36936936936937" customWidth="1"/>
-    <col min="2" max="2" width="77.0900900900901" customWidth="1"/>
-    <col min="3" max="3" width="2.36936936936937" customWidth="1"/>
-    <col min="4" max="4" width="3.36936936936937" customWidth="1"/>
-    <col min="5" max="5" width="4.36936936936937" customWidth="1"/>
-    <col min="6" max="6" width="3.36936936936937" customWidth="1"/>
-    <col min="7" max="7" width="77.0900900900901" customWidth="1"/>
-    <col min="8" max="10" width="2.36936936936937" customWidth="1"/>
+    <col min="1" max="1" width="3.36666666666667" customWidth="1"/>
+    <col min="2" max="2" width="77.0916666666667" customWidth="1"/>
+    <col min="3" max="3" width="2.36666666666667" customWidth="1"/>
+    <col min="4" max="4" width="3.36666666666667" customWidth="1"/>
+    <col min="5" max="5" width="4.36666666666667" customWidth="1"/>
+    <col min="6" max="6" width="3.36666666666667" customWidth="1"/>
+    <col min="7" max="7" width="77.0916666666667" customWidth="1"/>
+    <col min="8" max="10" width="2.36666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2309,20 +2333,20 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.36936936936937" customWidth="1"/>
-    <col min="2" max="2" width="4.36936936936937" customWidth="1"/>
-    <col min="3" max="3" width="3.09009009009009" customWidth="1"/>
-    <col min="4" max="4" width="77.0900900900901" customWidth="1"/>
-    <col min="5" max="7" width="2.36936936936937" customWidth="1"/>
-    <col min="9" max="9" width="3.36936936936937" customWidth="1"/>
-    <col min="10" max="10" width="3.45045045045045" customWidth="1"/>
-    <col min="11" max="11" width="3.36936936936937" customWidth="1"/>
-    <col min="12" max="19" width="2.36936936936937" customWidth="1"/>
+    <col min="1" max="1" width="3.36666666666667" customWidth="1"/>
+    <col min="2" max="2" width="4.36666666666667" customWidth="1"/>
+    <col min="3" max="3" width="3.09166666666667" customWidth="1"/>
+    <col min="4" max="4" width="77.0916666666667" customWidth="1"/>
+    <col min="5" max="7" width="2.36666666666667" customWidth="1"/>
+    <col min="9" max="9" width="3.36666666666667" customWidth="1"/>
+    <col min="10" max="10" width="3.45" customWidth="1"/>
+    <col min="11" max="11" width="3.36666666666667" customWidth="1"/>
+    <col min="12" max="19" width="2.36666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -3515,7 +3539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" ht="14.15" spans="1:19">
+    <row r="25" spans="1:19">
       <c r="A25" s="95">
         <v>22</v>
       </c>
@@ -3913,24 +3937,24 @@
   <sheetPr/>
   <dimension ref="B1:AI109"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A64" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="17" width="2.27027027027027" customWidth="1"/>
-    <col min="18" max="18" width="2.36936936936937" customWidth="1"/>
-    <col min="19" max="21" width="2.27027027027027" customWidth="1"/>
-    <col min="22" max="22" width="2.38738738738739" customWidth="1"/>
-    <col min="23" max="25" width="2.37837837837838" customWidth="1"/>
-    <col min="26" max="26" width="2.4954954954955" customWidth="1"/>
-    <col min="27" max="27" width="2.27927927927928" customWidth="1"/>
-    <col min="28" max="30" width="2.37837837837838" customWidth="1"/>
-    <col min="31" max="31" width="2.27927927927928" customWidth="1"/>
-    <col min="32" max="32" width="2.37837837837838" customWidth="1"/>
-    <col min="33" max="34" width="2.46846846846847" customWidth="1"/>
-    <col min="35" max="35" width="3.47747747747748" customWidth="1"/>
+    <col min="2" max="17" width="2.26666666666667" customWidth="1"/>
+    <col min="18" max="18" width="2.36666666666667" customWidth="1"/>
+    <col min="19" max="21" width="2.26666666666667" customWidth="1"/>
+    <col min="22" max="22" width="2.38333333333333" customWidth="1"/>
+    <col min="23" max="25" width="2.375" customWidth="1"/>
+    <col min="26" max="26" width="2.49166666666667" customWidth="1"/>
+    <col min="27" max="27" width="2.28333333333333" customWidth="1"/>
+    <col min="28" max="30" width="2.375" customWidth="1"/>
+    <col min="31" max="31" width="2.28333333333333" customWidth="1"/>
+    <col min="32" max="32" width="2.375" customWidth="1"/>
+    <col min="33" max="34" width="2.46666666666667" customWidth="1"/>
+    <col min="35" max="35" width="3.475" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
@@ -6340,17 +6364,17 @@
   <dimension ref="B2:V70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:W$1048576"/>
+      <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="4.37837837837838" style="1" customWidth="1"/>
-    <col min="3" max="21" width="2.37837837837838" style="1" customWidth="1"/>
-    <col min="22" max="22" width="4.37837837837838" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.375" style="1" customWidth="1"/>
+    <col min="3" max="21" width="2.375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="4.375" style="1" customWidth="1"/>
     <col min="23" max="23" width="9" style="1"/>
-    <col min="24" max="24" width="32.6216216216216" style="1" customWidth="1"/>
+    <col min="24" max="24" width="32.625" style="1" customWidth="1"/>
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6383,7 +6407,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="2:22">
+    <row r="3" ht="14.25" spans="2:22">
       <c r="B3" s="22">
         <v>1</v>
       </c>
@@ -6412,7 +6436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="2:22">
+    <row r="4" ht="14.25" spans="2:22">
       <c r="B4" s="22">
         <v>2</v>
       </c>
@@ -6441,7 +6465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="2:22">
+    <row r="5" ht="14.25" spans="2:22">
       <c r="B5" s="22">
         <v>3</v>
       </c>
@@ -6470,7 +6494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="2:22">
+    <row r="6" ht="14.25" spans="2:22">
       <c r="B6" s="22">
         <v>4</v>
       </c>
@@ -6499,7 +6523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="2:22">
+    <row r="7" ht="14.25" spans="2:22">
       <c r="B7" s="22">
         <v>5</v>
       </c>
@@ -6526,7 +6550,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="2:22">
+    <row r="8" ht="14.25" spans="2:22">
       <c r="B8" s="22">
         <v>6</v>
       </c>
@@ -6555,7 +6579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="2:22">
+    <row r="9" ht="14.25" spans="2:22">
       <c r="B9" s="22">
         <v>7</v>
       </c>
@@ -6584,7 +6608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="2:22">
+    <row r="10" ht="14.25" spans="2:22">
       <c r="B10" s="22">
         <v>8</v>
       </c>
@@ -6613,7 +6637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="2:22">
+    <row r="11" ht="14.25" spans="2:22">
       <c r="B11" s="22">
         <v>9</v>
       </c>
@@ -6642,7 +6666,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="2:22">
+    <row r="12" ht="14.25" spans="2:22">
       <c r="B12" s="22">
         <v>10</v>
       </c>
@@ -6671,7 +6695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="2:22">
+    <row r="13" ht="14.25" spans="2:22">
       <c r="B13" s="22">
         <v>11</v>
       </c>
@@ -6700,7 +6724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="2:22">
+    <row r="14" ht="14.25" spans="2:22">
       <c r="B14" s="22">
         <v>12</v>
       </c>
@@ -6729,7 +6753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="2:22">
+    <row r="15" ht="14.25" spans="2:22">
       <c r="B15" s="22">
         <v>13</v>
       </c>
@@ -6758,7 +6782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="2:22">
+    <row r="16" ht="14.25" spans="2:22">
       <c r="B16" s="22">
         <v>14</v>
       </c>
@@ -6787,7 +6811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="2:22">
+    <row r="17" ht="14.25" spans="2:22">
       <c r="B17" s="22">
         <v>15</v>
       </c>
@@ -6816,7 +6840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="2:22">
+    <row r="18" ht="14.25" spans="2:22">
       <c r="B18" s="22">
         <v>16</v>
       </c>
@@ -6845,7 +6869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="2:22">
+    <row r="19" ht="14.25" spans="2:22">
       <c r="B19" s="22">
         <v>17</v>
       </c>
@@ -6874,7 +6898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="2:22">
+    <row r="20" ht="14.25" spans="2:22">
       <c r="B20" s="22">
         <v>18</v>
       </c>
@@ -6903,7 +6927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="2:22">
+    <row r="21" ht="14.25" spans="2:22">
       <c r="B21" s="22">
         <v>19</v>
       </c>
@@ -8211,20 +8235,22 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:V45"/>
+  <dimension ref="B3:AC45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:U26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="8.61666666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="4.37837837837838" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.62162162162162" style="1" customWidth="1"/>
-    <col min="4" max="21" width="2.37837837837838" style="1" customWidth="1"/>
-    <col min="22" max="22" width="4.37837837837838" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.625" style="1" customWidth="1"/>
+    <col min="4" max="21" width="2.375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="4.375" style="1" customWidth="1"/>
     <col min="23" max="23" width="9" style="1"/>
+    <col min="26" max="26" width="14.875" customWidth="1"/>
+    <col min="29" max="29" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:22">
@@ -8285,7 +8311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:22">
+    <row r="5" spans="2:29">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -8311,8 +8337,21 @@
       <c r="V5" s="17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="2:22">
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA5"/>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29">
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -8338,8 +8377,20 @@
       <c r="V6" s="17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:22">
+      <c r="Y6">
+        <v>2</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB6">
+        <v>2</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29">
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -8365,8 +8416,20 @@
       <c r="V7" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="2:22">
+      <c r="Y7">
+        <v>3</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB7">
+        <v>3</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28">
       <c r="B8" s="5">
         <v>5</v>
       </c>
@@ -8392,8 +8455,17 @@
       <c r="V8" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="2:22">
+      <c r="Y8">
+        <v>4</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28">
       <c r="B9" s="5">
         <v>6</v>
       </c>
@@ -8419,6 +8491,15 @@
       <c r="V9" s="17" t="s">
         <v>13</v>
       </c>
+      <c r="Y9">
+        <v>5</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="2:22">
       <c r="B10" s="5">

--- a/Axcels/camery.xlsx
+++ b/Axcels/camery.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13815" windowHeight="13230" activeTab="4"/>
+    <workbookView windowWidth="13575" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="fonk" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="camary" sheetId="5" r:id="rId3"/>
     <sheet name="komet-Keset" sheetId="6" r:id="rId4"/>
     <sheet name="fond-sheets" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
   <si>
     <t xml:space="preserve"> Z</t>
   </si>
@@ -331,16 +332,52 @@
   <si>
     <t>create</t>
   </si>
+  <si>
+    <t>CartItem Item = Items.Find(c =&gt; (c.ProductID == productID) &amp;&amp; (c.ProductName == "ABS001"));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CartItem Item = Items.Find(c =&gt; (c.ProductID == productID) &amp;&amp; (c.ProductName == "ABS001"));</t>
+  </si>
+  <si>
+    <t>CartItem</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Find</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>ProductID</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -447,29 +484,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -487,33 +501,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -525,8 +515,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,9 +538,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,10 +592,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -812,25 +849,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,7 +867,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,7 +885,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,25 +921,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,24 +958,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,17 +1023,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1010,17 +1056,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1040,15 +1080,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1064,6 +1095,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1074,15 +1120,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1091,10 +1128,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="52" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="51" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1103,7 +1140,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1115,118 +1152,118 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="44" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="54" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="46" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="46" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="42" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2333,7 +2370,7 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3937,8 +3974,8 @@
   <sheetPr/>
   <dimension ref="B1:AI109"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="O71" sqref="O71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6363,8 +6400,8 @@
   <sheetPr/>
   <dimension ref="B2:V70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="W47" sqref="W47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8237,8 +8274,8 @@
   <sheetPr/>
   <dimension ref="B3:AC45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC9" sqref="AC9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61666666666667" defaultRowHeight="13.5"/>
@@ -8343,7 +8380,6 @@
       <c r="Z5" t="s">
         <v>91</v>
       </c>
-      <c r="AA5"/>
       <c r="AB5">
         <v>1</v>
       </c>
@@ -8582,7 +8618,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:22">
+    <row r="13" spans="2:24">
       <c r="B13" s="5">
         <v>10</v>
       </c>
@@ -8608,6 +8644,9 @@
       <c r="V13" s="18">
         <v>11</v>
       </c>
+      <c r="X13" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="14" spans="2:22">
       <c r="B14" s="5">
@@ -8663,7 +8702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:22">
+    <row r="16" spans="2:24">
       <c r="B16" s="5">
         <v>13</v>
       </c>
@@ -8689,6 +8728,9 @@
       <c r="V16" s="18">
         <v>7</v>
       </c>
+      <c r="X16" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="17" spans="2:22">
       <c r="B17" s="5">
@@ -9602,4 +9644,129 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="2" max="2" width="5.375" customWidth="1"/>
+    <col min="3" max="3" width="2.375" customWidth="1"/>
+    <col min="4" max="4" width="5.375" customWidth="1"/>
+    <col min="5" max="7" width="2.375" customWidth="1"/>
+    <col min="8" max="8" width="10.375" customWidth="1"/>
+    <col min="9" max="12" width="2.375" customWidth="1"/>
+    <col min="13" max="13" width="5.375" customWidth="1"/>
+    <col min="14" max="14" width="3.375" customWidth="1"/>
+    <col min="15" max="15" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2" t="s">
+        <v>110</v>
+      </c>
+      <c r="P2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Axcels/camery.xlsx
+++ b/Axcels/camery.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13575" windowHeight="12645" activeTab="5"/>
+    <workbookView windowWidth="27750" windowHeight="13650" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="fonk" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,13 @@
     <sheet name="camary" sheetId="5" r:id="rId3"/>
     <sheet name="komet-Keset" sheetId="6" r:id="rId4"/>
     <sheet name="fond-sheets" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
   <si>
     <t xml:space="preserve"> Z</t>
   </si>
@@ -338,36 +337,6 @@
   <si>
     <t xml:space="preserve">    CartItem Item = Items.Find(c =&gt; (c.ProductID == productID) &amp;&amp; (c.ProductName == "ABS001"));</t>
   </si>
-  <si>
-    <t>CartItem</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>Find</t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>ProductID</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
-    <t>&amp;</t>
-  </si>
-  <si>
-    <t>ProductName</t>
-  </si>
 </sst>
 </file>
 
@@ -375,8 +344,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
@@ -477,15 +446,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,7 +464,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,17 +478,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,61 +554,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -849,7 +818,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,103 +926,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,6 +1007,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1049,8 +1033,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1095,27 +1081,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1128,10 +1097,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="51" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="44" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1140,7 +1109,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1149,124 +1118,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="44" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="54" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="42" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8274,7 +8243,7 @@
   <sheetPr/>
   <dimension ref="B3:AC45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
@@ -9644,129 +9613,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:P2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="2" max="2" width="5.375" customWidth="1"/>
-    <col min="3" max="3" width="2.375" customWidth="1"/>
-    <col min="4" max="4" width="5.375" customWidth="1"/>
-    <col min="5" max="7" width="2.375" customWidth="1"/>
-    <col min="8" max="8" width="10.375" customWidth="1"/>
-    <col min="9" max="12" width="2.375" customWidth="1"/>
-    <col min="13" max="13" width="5.375" customWidth="1"/>
-    <col min="14" max="14" width="3.375" customWidth="1"/>
-    <col min="15" max="15" width="12.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:16">
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>12</v>
-      </c>
-      <c r="N1">
-        <v>13</v>
-      </c>
-      <c r="O1">
-        <v>14</v>
-      </c>
-      <c r="P1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K2" t="s">
-        <v>109</v>
-      </c>
-      <c r="L2" t="s">
-        <v>105</v>
-      </c>
-      <c r="M2" t="s">
-        <v>102</v>
-      </c>
-      <c r="N2" t="s">
-        <v>103</v>
-      </c>
-      <c r="O2" t="s">
-        <v>110</v>
-      </c>
-      <c r="P2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Axcels/camery.xlsx
+++ b/Axcels/camery.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27750" windowHeight="13650" firstSheet="2" activeTab="4"/>
+    <workbookView windowWidth="27030" windowHeight="11475" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="fonk" sheetId="1" r:id="rId1"/>
-    <sheet name="eydix" sheetId="4" r:id="rId2"/>
-    <sheet name="camary" sheetId="5" r:id="rId3"/>
+    <sheet name="camary" sheetId="5" r:id="rId2"/>
+    <sheet name="eydix" sheetId="4" r:id="rId3"/>
     <sheet name="komet-Keset" sheetId="6" r:id="rId4"/>
     <sheet name="fond-sheets" sheetId="7" r:id="rId5"/>
   </sheets>
@@ -113,6 +113,69 @@
     <t>Rows:53 Cols:45</t>
   </si>
   <si>
+    <t>Necessities of border for leonic.simit</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>Ko</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>Ce</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>∧</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>＜</t>
+  </si>
+  <si>
+    <t>＞</t>
+  </si>
+  <si>
+    <t>∨</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>二</t>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>\\</t>
+  </si>
+  <si>
     <t>九宫格 嵌入式 函数 右侧?.可变 随机颜色 算法(Cyber)</t>
   </si>
   <si>
@@ -135,9 +198,6 @@
   </si>
   <si>
     <t>W</t>
-  </si>
-  <si>
-    <t>V</t>
   </si>
   <si>
     <t>G</t>
@@ -167,66 +227,6 @@
     </r>
   </si>
   <si>
-    <t>Necessities of border for leonic.simit</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>一</t>
-  </si>
-  <si>
-    <t>Ko</t>
-  </si>
-  <si>
-    <t>or</t>
-  </si>
-  <si>
-    <t>Ce</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>LL</t>
-  </si>
-  <si>
-    <t>∧</t>
-  </si>
-  <si>
-    <t>\</t>
-  </si>
-  <si>
-    <t>＜</t>
-  </si>
-  <si>
-    <t>＞</t>
-  </si>
-  <si>
-    <t>∨</t>
-  </si>
-  <si>
-    <t>&lt;</t>
-  </si>
-  <si>
-    <t>&gt;</t>
-  </si>
-  <si>
-    <t>二</t>
-  </si>
-  <si>
-    <t>//</t>
-  </si>
-  <si>
-    <t>\\</t>
-  </si>
-  <si>
     <t>tye</t>
   </si>
   <si>
@@ -343,10 +343,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -393,13 +393,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -442,21 +448,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="黑体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,7 +469,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -479,9 +477,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -493,15 +507,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,9 +523,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,14 +547,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,19 +561,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -662,6 +662,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.349986266670736"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -669,12 +753,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0499893185216834"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,79 +818,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.749992370372631"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,7 +860,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,43 +902,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,43 +926,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,21 +992,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1017,6 +1002,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1042,30 +1051,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1081,11 +1066,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1097,10 +1097,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="44" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="54" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1109,133 +1109,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="42" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="43" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="48" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="48" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="44" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1339,6 +1339,90 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="28" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1348,10 +1432,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="32" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1372,28 +1456,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="31" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="31" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="31" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="31" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="32" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="32" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1405,31 +1489,31 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="31" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="31" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1438,37 +1522,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="32" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="32" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="7" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="7" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1477,172 +1561,88 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2336,1614 +2336,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="3.36666666666667" customWidth="1"/>
-    <col min="2" max="2" width="4.36666666666667" customWidth="1"/>
-    <col min="3" max="3" width="3.09166666666667" customWidth="1"/>
-    <col min="4" max="4" width="77.0916666666667" customWidth="1"/>
-    <col min="5" max="7" width="2.36666666666667" customWidth="1"/>
-    <col min="9" max="9" width="3.36666666666667" customWidth="1"/>
-    <col min="10" max="10" width="3.45" customWidth="1"/>
-    <col min="11" max="11" width="3.36666666666667" customWidth="1"/>
-    <col min="12" max="19" width="2.36666666666667" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="92">
-        <v>1</v>
-      </c>
-      <c r="B1" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="93" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="94" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="94" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="94" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="92">
-        <v>1</v>
-      </c>
-      <c r="J1" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="119" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="119" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="119" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="92">
-        <v>3</v>
-      </c>
-      <c r="C2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="94" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="94" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="94" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="92">
-        <v>3</v>
-      </c>
-      <c r="K2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="119" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="119" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="119" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="92">
-        <v>6</v>
-      </c>
-      <c r="D3" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="94" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="94" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="94" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="92">
-        <v>6</v>
-      </c>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="119" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="119" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="119" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="95">
-        <v>1</v>
-      </c>
-      <c r="B4" s="95">
-        <v>-25</v>
-      </c>
-      <c r="C4" s="95">
-        <v>1</v>
-      </c>
-      <c r="D4" s="96" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="97" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="97" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="97" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="95">
-        <v>1</v>
-      </c>
-      <c r="J4" s="95">
-        <v>-25</v>
-      </c>
-      <c r="K4" s="95">
-        <v>1</v>
-      </c>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="97" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="97" t="s">
-        <v>4</v>
-      </c>
-      <c r="S4" s="97" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="95">
-        <v>2</v>
-      </c>
-      <c r="B5" s="95">
-        <v>-24</v>
-      </c>
-      <c r="C5" s="98">
-        <v>2</v>
-      </c>
-      <c r="D5" s="96" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="95">
-        <v>2</v>
-      </c>
-      <c r="J5" s="95">
-        <v>-24</v>
-      </c>
-      <c r="K5" s="98">
-        <v>2</v>
-      </c>
-      <c r="L5" s="111" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="112"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="R5" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="S5" s="97" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="95">
-        <v>3</v>
-      </c>
-      <c r="B6" s="95">
-        <v>-23</v>
-      </c>
-      <c r="C6" s="95">
-        <v>3</v>
-      </c>
-      <c r="D6" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="97" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="97" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="97" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="95">
-        <v>3</v>
-      </c>
-      <c r="J6" s="95">
-        <v>-23</v>
-      </c>
-      <c r="K6" s="95">
-        <v>3</v>
-      </c>
-      <c r="L6" s="110">
-        <v>1</v>
-      </c>
-      <c r="M6" s="110">
-        <v>1</v>
-      </c>
-      <c r="N6" s="110">
-        <v>1</v>
-      </c>
-      <c r="O6" s="110">
-        <v>1</v>
-      </c>
-      <c r="P6" s="110">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="100" t="s">
-        <v>33</v>
-      </c>
-      <c r="R6" s="97" t="s">
-        <v>8</v>
-      </c>
-      <c r="S6" s="97" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="95">
-        <v>4</v>
-      </c>
-      <c r="B7" s="95">
-        <v>-22</v>
-      </c>
-      <c r="C7" s="95">
-        <v>4</v>
-      </c>
-      <c r="D7" s="96" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="95">
-        <v>4</v>
-      </c>
-      <c r="J7" s="95">
-        <v>-22</v>
-      </c>
-      <c r="K7" s="95">
-        <v>4</v>
-      </c>
-      <c r="L7" s="110">
-        <v>1</v>
-      </c>
-      <c r="M7" s="110">
-        <v>0</v>
-      </c>
-      <c r="N7" s="110">
-        <v>1</v>
-      </c>
-      <c r="O7" s="110">
-        <v>1</v>
-      </c>
-      <c r="P7" s="110">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="100" t="s">
-        <v>4</v>
-      </c>
-      <c r="R7" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="S7" s="99" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="95">
-        <v>5</v>
-      </c>
-      <c r="B8" s="95">
-        <v>-21</v>
-      </c>
-      <c r="C8" s="95">
-        <v>5</v>
-      </c>
-      <c r="D8" s="96" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="99" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="99" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="99" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="95">
-        <v>5</v>
-      </c>
-      <c r="J8" s="95">
-        <v>-21</v>
-      </c>
-      <c r="K8" s="95">
-        <v>5</v>
-      </c>
-      <c r="L8" s="110">
-        <v>1</v>
-      </c>
-      <c r="M8" s="110">
-        <v>1</v>
-      </c>
-      <c r="N8" s="110">
-        <v>1</v>
-      </c>
-      <c r="O8" s="110">
-        <v>0</v>
-      </c>
-      <c r="P8" s="110">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="100" t="s">
-        <v>34</v>
-      </c>
-      <c r="R8" s="99" t="s">
-        <v>2</v>
-      </c>
-      <c r="S8" s="99" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="95">
-        <v>6</v>
-      </c>
-      <c r="B9" s="95">
-        <v>-20</v>
-      </c>
-      <c r="C9" s="95">
-        <v>6</v>
-      </c>
-      <c r="D9" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="100" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="99" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="99" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="95">
-        <v>6</v>
-      </c>
-      <c r="J9" s="95">
-        <v>-20</v>
-      </c>
-      <c r="K9" s="95">
-        <v>6</v>
-      </c>
-      <c r="L9" s="110">
-        <v>1</v>
-      </c>
-      <c r="M9" s="110">
-        <v>1</v>
-      </c>
-      <c r="N9" s="110">
-        <v>1</v>
-      </c>
-      <c r="O9" s="110">
-        <v>1</v>
-      </c>
-      <c r="P9" s="110">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="100" t="s">
-        <v>28</v>
-      </c>
-      <c r="R9" s="99" t="s">
-        <v>13</v>
-      </c>
-      <c r="S9" s="99" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="95">
-        <v>7</v>
-      </c>
-      <c r="B10" s="95">
-        <v>-19</v>
-      </c>
-      <c r="C10" s="95">
-        <v>7</v>
-      </c>
-      <c r="D10" s="96" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="100" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="95">
-        <v>7</v>
-      </c>
-      <c r="J10" s="95">
-        <v>-19</v>
-      </c>
-      <c r="K10" s="95">
-        <v>7</v>
-      </c>
-      <c r="L10" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="114"/>
-      <c r="N10" s="110"/>
-      <c r="O10" s="110"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="99" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="95">
-        <v>8</v>
-      </c>
-      <c r="B11" s="95">
-        <v>-18</v>
-      </c>
-      <c r="C11" s="95">
-        <v>8</v>
-      </c>
-      <c r="D11" s="96" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="100" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="99" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="95">
-        <v>8</v>
-      </c>
-      <c r="J11" s="95">
-        <v>-18</v>
-      </c>
-      <c r="K11" s="95">
-        <v>8</v>
-      </c>
-      <c r="L11" s="115"/>
-      <c r="M11" s="115"/>
-      <c r="N11" s="115"/>
-      <c r="O11" s="115"/>
-      <c r="P11" s="115"/>
-      <c r="Q11" s="99" t="s">
-        <v>16</v>
-      </c>
-      <c r="R11" s="99" t="s">
-        <v>16</v>
-      </c>
-      <c r="S11" s="99" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="95">
-        <v>9</v>
-      </c>
-      <c r="B12" s="95">
-        <v>-17</v>
-      </c>
-      <c r="C12" s="101">
-        <v>9</v>
-      </c>
-      <c r="D12" s="96" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="100" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="95">
-        <v>9</v>
-      </c>
-      <c r="J12" s="95">
-        <v>-17</v>
-      </c>
-      <c r="K12" s="101">
-        <v>9</v>
-      </c>
-      <c r="L12" s="111" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" s="112"/>
-      <c r="N12" s="110"/>
-      <c r="O12" s="110"/>
-      <c r="P12" s="110"/>
-      <c r="Q12" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="R12" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="S12" s="99" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="95">
-        <v>10</v>
-      </c>
-      <c r="B13" s="95">
-        <v>-16</v>
-      </c>
-      <c r="C13" s="95">
-        <v>10</v>
-      </c>
-      <c r="D13" s="96"/>
-      <c r="E13" s="99" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="99" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="95">
-        <v>10</v>
-      </c>
-      <c r="J13" s="95">
-        <v>-16</v>
-      </c>
-      <c r="K13" s="95">
-        <v>10</v>
-      </c>
-      <c r="L13" s="110" t="s">
-        <v>37</v>
-      </c>
-      <c r="M13" s="110" t="s">
-        <v>37</v>
-      </c>
-      <c r="N13" s="110" t="s">
-        <v>34</v>
-      </c>
-      <c r="O13" s="110" t="s">
-        <v>2</v>
-      </c>
-      <c r="P13" s="110" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q13" s="99" t="s">
-        <v>16</v>
-      </c>
-      <c r="R13" s="99" t="s">
-        <v>16</v>
-      </c>
-      <c r="S13" s="99" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="95">
-        <v>11</v>
-      </c>
-      <c r="B14" s="95">
-        <v>-15</v>
-      </c>
-      <c r="C14" s="102">
-        <v>11</v>
-      </c>
-      <c r="D14" s="96" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="95">
-        <v>11</v>
-      </c>
-      <c r="J14" s="95">
-        <v>-15</v>
-      </c>
-      <c r="K14" s="102">
-        <v>11</v>
-      </c>
-      <c r="L14" s="110" t="s">
-        <v>34</v>
-      </c>
-      <c r="M14" s="110" t="s">
-        <v>37</v>
-      </c>
-      <c r="N14" s="110" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="110" t="s">
-        <v>6</v>
-      </c>
-      <c r="P14" s="110" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="99" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="95">
-        <v>12</v>
-      </c>
-      <c r="B15" s="95">
-        <v>-14</v>
-      </c>
-      <c r="C15" s="102">
-        <v>12</v>
-      </c>
-      <c r="D15" s="96" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="95">
-        <v>12</v>
-      </c>
-      <c r="J15" s="95">
-        <v>-14</v>
-      </c>
-      <c r="K15" s="102">
-        <v>12</v>
-      </c>
-      <c r="L15" s="110" t="s">
-        <v>2</v>
-      </c>
-      <c r="M15" s="110" t="s">
-        <v>34</v>
-      </c>
-      <c r="N15" s="110" t="s">
-        <v>37</v>
-      </c>
-      <c r="O15" s="110">
-        <v>1</v>
-      </c>
-      <c r="P15" s="110">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="103" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="95">
-        <v>13</v>
-      </c>
-      <c r="B16" s="95">
-        <v>-13</v>
-      </c>
-      <c r="C16" s="102">
-        <v>13</v>
-      </c>
-      <c r="D16" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="95">
-        <v>13</v>
-      </c>
-      <c r="J16" s="95">
-        <v>-13</v>
-      </c>
-      <c r="K16" s="102">
-        <v>13</v>
-      </c>
-      <c r="L16" s="110" t="s">
-        <v>40</v>
-      </c>
-      <c r="M16" s="110">
-        <v>7</v>
-      </c>
-      <c r="N16" s="110">
-        <v>2</v>
-      </c>
-      <c r="O16" s="110">
-        <v>5</v>
-      </c>
-      <c r="P16" s="110">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="R16" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="S16" s="103" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="95">
-        <v>14</v>
-      </c>
-      <c r="B17" s="95">
-        <v>-12</v>
-      </c>
-      <c r="C17" s="102">
-        <v>14</v>
-      </c>
-      <c r="D17" s="96" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="95">
-        <v>14</v>
-      </c>
-      <c r="J17" s="95">
-        <v>-12</v>
-      </c>
-      <c r="K17" s="102">
-        <v>14</v>
-      </c>
-      <c r="L17" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="M17" s="114"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="R17" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="S17" s="103" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="95">
-        <v>15</v>
-      </c>
-      <c r="B18" s="95">
-        <v>-11</v>
-      </c>
-      <c r="C18" s="102">
-        <v>15</v>
-      </c>
-      <c r="D18" s="96" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="I18" s="95">
-        <v>15</v>
-      </c>
-      <c r="J18" s="95">
-        <v>-11</v>
-      </c>
-      <c r="K18" s="102">
-        <v>15</v>
-      </c>
-      <c r="L18" s="116"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="116"/>
-      <c r="O18" s="116"/>
-      <c r="P18" s="116"/>
-      <c r="Q18" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="R18" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="S18" s="104" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="95">
-        <v>16</v>
-      </c>
-      <c r="B19" s="95">
-        <v>-10</v>
-      </c>
-      <c r="C19" s="102">
-        <v>16</v>
-      </c>
-      <c r="D19" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="95">
-        <v>16</v>
-      </c>
-      <c r="J19" s="95">
-        <v>-10</v>
-      </c>
-      <c r="K19" s="102">
-        <v>16</v>
-      </c>
-      <c r="L19" s="116"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="116"/>
-      <c r="O19" s="116"/>
-      <c r="P19" s="116"/>
-      <c r="Q19" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="R19" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="S19" s="104" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="95">
-        <v>17</v>
-      </c>
-      <c r="B20" s="95">
-        <v>-9</v>
-      </c>
-      <c r="C20" s="95">
-        <v>17</v>
-      </c>
-      <c r="D20" s="96" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="95">
-        <v>17</v>
-      </c>
-      <c r="J20" s="95">
-        <v>-9</v>
-      </c>
-      <c r="K20" s="95">
-        <v>17</v>
-      </c>
-      <c r="L20" s="116" t="s">
-        <v>41</v>
-      </c>
-      <c r="M20" s="116"/>
-      <c r="N20" s="116"/>
-      <c r="O20" s="116"/>
-      <c r="P20" s="116"/>
-      <c r="Q20" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="104" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="95">
-        <v>18</v>
-      </c>
-      <c r="B21" s="95">
-        <v>-8</v>
-      </c>
-      <c r="C21" s="95">
-        <v>18</v>
-      </c>
-      <c r="D21" s="96" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="I21" s="95">
-        <v>18</v>
-      </c>
-      <c r="J21" s="95">
-        <v>-8</v>
-      </c>
-      <c r="K21" s="95">
-        <v>18</v>
-      </c>
-      <c r="L21" s="116"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="116"/>
-      <c r="O21" s="116"/>
-      <c r="P21" s="116"/>
-      <c r="Q21" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="R21" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="S21" s="104" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="95">
-        <v>19</v>
-      </c>
-      <c r="B22" s="95">
-        <v>-7</v>
-      </c>
-      <c r="C22" s="95">
-        <v>19</v>
-      </c>
-      <c r="D22" s="96" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="95">
-        <v>19</v>
-      </c>
-      <c r="J22" s="95">
-        <v>-7</v>
-      </c>
-      <c r="K22" s="95">
-        <v>19</v>
-      </c>
-      <c r="L22" s="116"/>
-      <c r="M22" s="117"/>
-      <c r="N22" s="117"/>
-      <c r="O22" s="117"/>
-      <c r="P22" s="116"/>
-      <c r="Q22" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="S22" s="104" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="95">
-        <v>20</v>
-      </c>
-      <c r="B23" s="95">
-        <v>-6</v>
-      </c>
-      <c r="C23" s="95">
-        <v>20</v>
-      </c>
-      <c r="D23" s="96" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="95">
-        <v>20</v>
-      </c>
-      <c r="J23" s="95">
-        <v>-6</v>
-      </c>
-      <c r="K23" s="95">
-        <v>20</v>
-      </c>
-      <c r="L23" s="116"/>
-      <c r="M23" s="116"/>
-      <c r="N23" s="116"/>
-      <c r="O23" s="116"/>
-      <c r="P23" s="116"/>
-      <c r="Q23" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="R23" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="S23" s="104" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="95">
-        <v>21</v>
-      </c>
-      <c r="B24" s="95">
-        <v>-5</v>
-      </c>
-      <c r="C24" s="102">
-        <v>21</v>
-      </c>
-      <c r="D24" s="96" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="95">
-        <v>21</v>
-      </c>
-      <c r="J24" s="95">
-        <v>-5</v>
-      </c>
-      <c r="K24" s="102">
-        <v>21</v>
-      </c>
-      <c r="L24" s="116"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="116"/>
-      <c r="O24" s="116"/>
-      <c r="P24" s="116"/>
-      <c r="Q24" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="R24" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="S24" s="104" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="A25" s="95">
-        <v>22</v>
-      </c>
-      <c r="B25" s="95">
-        <v>-4</v>
-      </c>
-      <c r="C25" s="102">
-        <v>22</v>
-      </c>
-      <c r="D25" s="96" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="105" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="105" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="105" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="95">
-        <v>22</v>
-      </c>
-      <c r="J25" s="95">
-        <v>-4</v>
-      </c>
-      <c r="K25" s="102">
-        <v>22</v>
-      </c>
-      <c r="L25" s="116" t="s">
-        <v>43</v>
-      </c>
-      <c r="M25" s="116"/>
-      <c r="N25" s="116"/>
-      <c r="O25" s="116"/>
-      <c r="P25" s="116"/>
-      <c r="Q25" s="105" t="s">
-        <v>13</v>
-      </c>
-      <c r="R25" s="105" t="s">
-        <v>13</v>
-      </c>
-      <c r="S25" s="105" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
-      <c r="A26" s="95">
-        <v>23</v>
-      </c>
-      <c r="B26" s="95">
-        <v>-3</v>
-      </c>
-      <c r="C26" s="102">
-        <v>23</v>
-      </c>
-      <c r="D26" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="95">
-        <v>23</v>
-      </c>
-      <c r="J26" s="95">
-        <v>-3</v>
-      </c>
-      <c r="K26" s="102">
-        <v>23</v>
-      </c>
-      <c r="L26" s="116"/>
-      <c r="M26" s="116"/>
-      <c r="N26" s="116"/>
-      <c r="O26" s="116"/>
-      <c r="P26" s="116"/>
-      <c r="Q26" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="R26" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="S26" s="105" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
-      <c r="A27" s="95">
-        <v>24</v>
-      </c>
-      <c r="B27" s="95">
-        <v>-2</v>
-      </c>
-      <c r="C27" s="102">
-        <v>24</v>
-      </c>
-      <c r="D27" s="96" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="105" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="105" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="105" t="s">
-        <v>28</v>
-      </c>
-      <c r="I27" s="95">
-        <v>24</v>
-      </c>
-      <c r="J27" s="95">
-        <v>-2</v>
-      </c>
-      <c r="K27" s="102">
-        <v>24</v>
-      </c>
-      <c r="L27" s="116"/>
-      <c r="M27" s="116"/>
-      <c r="N27" s="116"/>
-      <c r="O27" s="116"/>
-      <c r="P27" s="116"/>
-      <c r="Q27" s="105" t="s">
-        <v>28</v>
-      </c>
-      <c r="R27" s="105" t="s">
-        <v>28</v>
-      </c>
-      <c r="S27" s="105" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
-      <c r="A28" s="95">
-        <v>25</v>
-      </c>
-      <c r="B28" s="95">
-        <v>-1</v>
-      </c>
-      <c r="C28" s="102">
-        <v>25</v>
-      </c>
-      <c r="D28" s="96" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="95">
-        <v>25</v>
-      </c>
-      <c r="J28" s="95">
-        <v>-1</v>
-      </c>
-      <c r="K28" s="118">
-        <v>25</v>
-      </c>
-      <c r="L28" s="116"/>
-      <c r="M28" s="116"/>
-      <c r="N28" s="116"/>
-      <c r="O28" s="116"/>
-      <c r="P28" s="116"/>
-      <c r="Q28" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="R28" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="S28" s="105" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="A29" s="95">
-        <v>26</v>
-      </c>
-      <c r="B29" s="95">
-        <v>0</v>
-      </c>
-      <c r="C29" s="106">
-        <v>26</v>
-      </c>
-      <c r="D29" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="107" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="107" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="107" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="95">
-        <v>26</v>
-      </c>
-      <c r="J29" s="95">
-        <v>0</v>
-      </c>
-      <c r="K29" s="118">
-        <v>26</v>
-      </c>
-      <c r="L29" s="116"/>
-      <c r="M29" s="116"/>
-      <c r="N29" s="116"/>
-      <c r="O29" s="116"/>
-      <c r="P29" s="116"/>
-      <c r="Q29" s="107" t="s">
-        <v>4</v>
-      </c>
-      <c r="R29" s="107" t="s">
-        <v>4</v>
-      </c>
-      <c r="S29" s="107" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
-      <c r="A30" s="95">
-        <v>27</v>
-      </c>
-      <c r="B30" s="95">
-        <v>1</v>
-      </c>
-      <c r="C30" s="95">
-        <v>27</v>
-      </c>
-      <c r="D30" s="96" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="107" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="107" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" s="107" t="s">
-        <v>4</v>
-      </c>
-      <c r="I30" s="95">
-        <v>27</v>
-      </c>
-      <c r="J30" s="95">
-        <v>1</v>
-      </c>
-      <c r="K30" s="95">
-        <v>27</v>
-      </c>
-      <c r="L30" s="116"/>
-      <c r="M30" s="116"/>
-      <c r="N30" s="116"/>
-      <c r="O30" s="116"/>
-      <c r="P30" s="116"/>
-      <c r="Q30" s="107" t="s">
-        <v>4</v>
-      </c>
-      <c r="R30" s="107" t="s">
-        <v>4</v>
-      </c>
-      <c r="S30" s="107" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
-      <c r="A31" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
-      <c r="I31" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="K31" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="L31" s="108"/>
-      <c r="M31" s="108"/>
-      <c r="N31" s="108"/>
-      <c r="O31" s="108"/>
-      <c r="P31" s="108"/>
-      <c r="Q31" s="109"/>
-      <c r="R31" s="109"/>
-      <c r="S31" s="109"/>
-    </row>
-    <row r="32" spans="1:19">
-      <c r="A32" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="109"/>
-      <c r="I32" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="K32" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="L32" s="108"/>
-      <c r="M32" s="108"/>
-      <c r="N32" s="108"/>
-      <c r="O32" s="108"/>
-      <c r="P32" s="108"/>
-      <c r="Q32" s="109"/>
-      <c r="R32" s="109"/>
-      <c r="S32" s="109"/>
-    </row>
-    <row r="33" spans="1:19">
-      <c r="A33" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="109"/>
-      <c r="I33" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="J33" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="K33" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="L33" s="108"/>
-      <c r="M33" s="108"/>
-      <c r="N33" s="108"/>
-      <c r="O33" s="108"/>
-      <c r="P33" s="108"/>
-      <c r="Q33" s="109"/>
-      <c r="R33" s="109"/>
-      <c r="S33" s="109"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L17:M17"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="B1:AI109"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A52" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="O71" sqref="O71"/>
     </sheetView>
   </sheetViews>
@@ -3965,2401 +2360,4006 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="B2" s="61"/>
+      <c r="H2" s="61"/>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
+      <c r="K3" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22">
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="68"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="91"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+    </row>
+    <row r="5" spans="2:22">
+      <c r="B5" s="62"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="66"/>
+      <c r="H5" s="62"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="91"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
+    </row>
+    <row r="6" spans="2:22">
+      <c r="B6" s="62"/>
+      <c r="C6" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="62"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+    </row>
+    <row r="7" spans="2:22">
+      <c r="B7" s="62"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="71"/>
+      <c r="H7" s="72"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="91"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+    </row>
+    <row r="8" spans="2:22">
+      <c r="B8" s="62"/>
+      <c r="C8" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="62"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="91"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="92"/>
+    </row>
+    <row r="9" spans="2:22">
+      <c r="B9" s="73"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="62"/>
+      <c r="K9" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="92"/>
+      <c r="V9" s="92"/>
+    </row>
+    <row r="10" spans="2:22">
+      <c r="B10" s="74"/>
+      <c r="H10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="92"/>
+      <c r="T10" s="92"/>
+      <c r="U10" s="92"/>
+      <c r="V10" s="92"/>
+    </row>
+    <row r="11" spans="2:22">
+      <c r="B11" s="74"/>
+      <c r="H11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="92"/>
+      <c r="T11" s="92"/>
+      <c r="U11" s="92"/>
+      <c r="V11" s="92"/>
+    </row>
+    <row r="12" spans="2:35">
+      <c r="B12" s="74"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="92"/>
+      <c r="S12" s="92"/>
+      <c r="T12" s="92"/>
+      <c r="U12" s="92"/>
+      <c r="AE12" s="66"/>
+      <c r="AF12" s="66"/>
+      <c r="AG12" s="66"/>
+      <c r="AH12" s="66"/>
+      <c r="AI12" s="67" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:35">
+      <c r="B13" s="74"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="92"/>
+      <c r="T13" s="92"/>
+      <c r="U13" s="92"/>
+      <c r="AE13" s="66"/>
+      <c r="AF13" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG13" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH13" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI13" s="66"/>
+    </row>
+    <row r="14" spans="2:35">
+      <c r="B14" s="74"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="92"/>
+      <c r="T14" s="92"/>
+      <c r="U14" s="92"/>
+      <c r="AE14" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF14" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG14" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH14" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI14" s="70" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:35">
+      <c r="B15" s="74"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="92"/>
+      <c r="S15" s="92"/>
+      <c r="T15" s="92"/>
+      <c r="U15" s="92"/>
+      <c r="AE15" s="110"/>
+      <c r="AF15" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG15" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH15" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI15" s="71"/>
+    </row>
+    <row r="16" spans="2:35">
+      <c r="B16" s="74"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="U16" s="103"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="66"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="66"/>
+      <c r="Z16" s="111"/>
+      <c r="AA16" s="112"/>
+      <c r="AB16" s="66"/>
+      <c r="AC16" s="66"/>
+      <c r="AD16" s="113"/>
+      <c r="AE16" s="110" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF16" s="110"/>
+      <c r="AG16" s="71"/>
+      <c r="AH16" s="71"/>
+      <c r="AI16" s="66"/>
+    </row>
+    <row r="17" spans="2:31">
+      <c r="B17" s="74"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="S17" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="T17" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="U17" s="101"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="X17" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y17" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z17" s="114"/>
+      <c r="AA17" s="114"/>
+      <c r="AB17" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC17" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD17" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE17" s="113"/>
+    </row>
+    <row r="18" spans="2:31">
+      <c r="B18" s="74"/>
+      <c r="Q18" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="R18" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="S18" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="T18" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="U18" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="V18" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="W18" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="X18" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y18" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z18" s="115" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA18" s="115" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB18" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC18" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD18" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE18" s="70" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:31">
+      <c r="B19" s="74"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="S19" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="T19" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="U19" s="102"/>
+      <c r="V19" s="71"/>
+      <c r="W19" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="X19" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y19" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z19" s="116"/>
+      <c r="AA19" s="116"/>
+      <c r="AB19" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC19" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD19" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE19" s="71"/>
+    </row>
+    <row r="20" spans="2:35">
+      <c r="B20" s="74"/>
+      <c r="Q20" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="R20" s="106" t="s">
+        <v>33</v>
+      </c>
+      <c r="S20" s="105" t="s">
+        <v>37</v>
+      </c>
+      <c r="T20" s="71"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="107"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="71"/>
+      <c r="Y20" s="71"/>
+      <c r="Z20" s="117"/>
+      <c r="AA20" s="117"/>
+      <c r="AB20" s="71"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="71"/>
+      <c r="AE20" s="66"/>
+      <c r="AF20" s="66"/>
+      <c r="AG20" s="66"/>
+      <c r="AH20" s="66"/>
+      <c r="AI20" s="67" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:35">
+      <c r="B21" s="74"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="R21" s="108" t="s">
+        <v>39</v>
+      </c>
+      <c r="S21" s="108" t="s">
+        <v>40</v>
+      </c>
+      <c r="T21" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="U21" s="92"/>
+      <c r="V21" s="92"/>
+      <c r="W21" s="92"/>
+      <c r="X21" s="92"/>
+      <c r="Y21" s="92"/>
+      <c r="Z21" s="92"/>
+      <c r="AA21" s="92"/>
+      <c r="AB21" s="92"/>
+      <c r="AC21" s="92"/>
+      <c r="AD21" s="92"/>
+      <c r="AE21" s="66"/>
+      <c r="AF21" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG21" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH21" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI21" s="66"/>
+    </row>
+    <row r="22" spans="2:35">
+      <c r="B22" s="74"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="R22" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="S22" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="T22" s="66"/>
+      <c r="U22" s="92"/>
+      <c r="V22" s="92"/>
+      <c r="W22" s="92"/>
+      <c r="X22" s="92"/>
+      <c r="Y22" s="92"/>
+      <c r="Z22" s="92"/>
+      <c r="AA22" s="92"/>
+      <c r="AB22" s="92"/>
+      <c r="AC22" s="92"/>
+      <c r="AD22" s="92"/>
+      <c r="AE22" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF22" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG22" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH22" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI22" s="70" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:35">
+      <c r="B23" s="74"/>
+      <c r="P23" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q23" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="R23" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="S23" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="T23" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="U23" s="92"/>
+      <c r="V23" s="92"/>
+      <c r="W23" s="92"/>
+      <c r="X23" s="92"/>
+      <c r="Y23" s="92"/>
+      <c r="Z23" s="92"/>
+      <c r="AA23" s="92"/>
+      <c r="AB23" s="92"/>
+      <c r="AC23" s="92"/>
+      <c r="AD23" s="92"/>
+      <c r="AE23" s="71"/>
+      <c r="AF23" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG23" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH23" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI23" s="71"/>
+    </row>
+    <row r="24" spans="2:35">
+      <c r="B24" s="61"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="R24" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="S24" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="T24" s="71"/>
+      <c r="U24" s="92"/>
+      <c r="V24" s="92"/>
+      <c r="W24" s="92"/>
+      <c r="X24" s="92"/>
+      <c r="Y24" s="92"/>
+      <c r="Z24" s="92"/>
+      <c r="AA24" s="92"/>
+      <c r="AB24" s="92"/>
+      <c r="AC24" s="92"/>
+      <c r="AD24" s="92"/>
+      <c r="AE24" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF24" s="71"/>
+      <c r="AG24" s="71"/>
+      <c r="AH24" s="71"/>
+      <c r="AI24" s="71"/>
+    </row>
+    <row r="25" spans="2:22">
+      <c r="B25" s="61"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="92"/>
+      <c r="V25" s="92"/>
+    </row>
+    <row r="26" spans="2:22">
+      <c r="B26" s="61"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="92"/>
+      <c r="T26" s="92"/>
+      <c r="U26" s="92"/>
+      <c r="V26" s="92"/>
+    </row>
+    <row r="27" spans="2:22">
+      <c r="B27" s="61"/>
+      <c r="C27" s="75">
+        <v>1</v>
+      </c>
+      <c r="D27" s="75">
+        <v>1</v>
+      </c>
+      <c r="E27" s="75">
+        <v>1</v>
+      </c>
+      <c r="F27" s="75">
+        <v>1</v>
+      </c>
+      <c r="G27" s="75">
+        <v>1</v>
+      </c>
+      <c r="H27" s="75">
+        <v>1</v>
+      </c>
+      <c r="I27" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="R27" s="92"/>
+      <c r="S27" s="92"/>
+      <c r="T27" s="92"/>
+      <c r="U27" s="92"/>
+      <c r="V27" s="92"/>
+    </row>
+    <row r="28" spans="2:22">
+      <c r="B28" s="61"/>
+      <c r="C28" s="76">
+        <v>1</v>
+      </c>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="77"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28" s="66"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="66"/>
+      <c r="R28" s="92"/>
+      <c r="T28" s="92"/>
+      <c r="U28" s="92"/>
+      <c r="V28" s="92"/>
+    </row>
+    <row r="29" spans="2:22">
+      <c r="B29" s="61"/>
+      <c r="C29" s="75">
+        <v>1</v>
+      </c>
+      <c r="D29" s="77"/>
+      <c r="E29" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="77"/>
+      <c r="I29" s="75">
+        <v>1</v>
+      </c>
+      <c r="M29" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="N29" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="O29" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29" s="99" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="2:8">
-      <c r="B2" s="33"/>
-      <c r="H2" s="33"/>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="36"/>
-      <c r="K3" s="63" t="s">
+      <c r="Q29" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="R29" s="92"/>
+      <c r="S29" s="92"/>
+      <c r="T29" s="92"/>
+      <c r="U29" s="92"/>
+      <c r="V29" s="92"/>
+    </row>
+    <row r="30" spans="2:22">
+      <c r="B30" s="61"/>
+      <c r="C30" s="75">
+        <v>1</v>
+      </c>
+      <c r="D30" s="83"/>
+      <c r="E30" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="83"/>
+      <c r="I30" s="75">
+        <v>1</v>
+      </c>
+      <c r="M30" s="71"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="63" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22">
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39" t="s">
+      <c r="P30" s="69"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="92"/>
+      <c r="S30" s="92"/>
+      <c r="T30" s="92"/>
+      <c r="U30" s="92"/>
+      <c r="V30" s="92"/>
+    </row>
+    <row r="31" spans="2:22">
+      <c r="B31" s="61"/>
+      <c r="C31" s="75">
+        <v>1</v>
+      </c>
+      <c r="D31" s="83"/>
+      <c r="E31" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="63"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-    </row>
-    <row r="5" spans="2:22">
-      <c r="B5" s="34"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="41" t="s">
+      <c r="G31" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="83"/>
+      <c r="I31" s="100">
+        <v>1</v>
+      </c>
+      <c r="M31" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="92"/>
+      <c r="S31" s="92"/>
+      <c r="T31" s="92"/>
+      <c r="U31" s="92"/>
+      <c r="V31" s="92"/>
+    </row>
+    <row r="32" spans="2:22">
+      <c r="B32" s="61"/>
+      <c r="C32" s="75">
+        <v>1</v>
+      </c>
+      <c r="D32" s="83"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="75">
+        <v>1</v>
+      </c>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
+      <c r="R32" s="92"/>
+      <c r="S32" s="92"/>
+      <c r="T32" s="92"/>
+      <c r="U32" s="92"/>
+      <c r="V32" s="92"/>
+    </row>
+    <row r="33" spans="2:22">
+      <c r="B33" s="61"/>
+      <c r="C33" s="85">
+        <v>1</v>
+      </c>
+      <c r="D33" s="75">
+        <v>1</v>
+      </c>
+      <c r="E33" s="75">
+        <v>1</v>
+      </c>
+      <c r="F33" s="75">
+        <v>1</v>
+      </c>
+      <c r="G33" s="75">
+        <v>1</v>
+      </c>
+      <c r="H33" s="75">
+        <v>1</v>
+      </c>
+      <c r="I33" s="75">
+        <v>1</v>
+      </c>
+      <c r="N33" s="63"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="63"/>
+      <c r="R33" s="92"/>
+      <c r="S33" s="92"/>
+      <c r="T33" s="92"/>
+      <c r="U33" s="92"/>
+      <c r="V33" s="92"/>
+    </row>
+    <row r="34" spans="2:22">
+      <c r="B34" s="61"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="63"/>
+      <c r="R34" s="92"/>
+      <c r="S34" s="92"/>
+      <c r="T34" s="92"/>
+      <c r="U34" s="92"/>
+      <c r="V34" s="92"/>
+    </row>
+    <row r="35" spans="2:22">
+      <c r="B35" s="61"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="92"/>
+      <c r="S35" s="92"/>
+      <c r="T35" s="92"/>
+      <c r="U35" s="92"/>
+      <c r="V35" s="92"/>
+    </row>
+    <row r="36" spans="2:22">
+      <c r="B36" s="61"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="92"/>
+      <c r="S36" s="92"/>
+      <c r="T36" s="92"/>
+      <c r="U36" s="92"/>
+      <c r="V36" s="92"/>
+    </row>
+    <row r="37" spans="2:22">
+      <c r="B37" s="61"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="92"/>
+      <c r="S37" s="92"/>
+      <c r="T37" s="92"/>
+      <c r="U37" s="92"/>
+      <c r="V37" s="92"/>
+    </row>
+    <row r="38" spans="14:22">
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="63"/>
+      <c r="R38" s="92"/>
+      <c r="S38" s="92"/>
+      <c r="T38" s="92"/>
+      <c r="U38" s="92"/>
+      <c r="V38" s="92"/>
+    </row>
+    <row r="39" spans="14:22">
+      <c r="N39" s="63"/>
+      <c r="O39" s="63"/>
+      <c r="P39" s="63"/>
+      <c r="Q39" s="63"/>
+      <c r="R39" s="63"/>
+      <c r="S39" s="63"/>
+      <c r="T39" s="63"/>
+      <c r="U39" s="63"/>
+      <c r="V39" s="63"/>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40" s="75">
+        <v>1</v>
+      </c>
+      <c r="C40" s="75">
+        <v>1</v>
+      </c>
+      <c r="D40" s="75">
+        <v>1</v>
+      </c>
+      <c r="E40" s="75">
+        <v>1</v>
+      </c>
+      <c r="F40" s="75">
+        <v>1</v>
+      </c>
+      <c r="G40" s="75">
+        <v>1</v>
+      </c>
+      <c r="H40" s="75">
+        <v>1</v>
+      </c>
+      <c r="I40" s="75">
+        <v>1</v>
+      </c>
+      <c r="J40" s="75">
+        <v>1</v>
+      </c>
+      <c r="K40" s="75">
+        <v>1</v>
+      </c>
+      <c r="L40" s="75">
+        <v>1</v>
+      </c>
+      <c r="M40" s="75">
+        <v>1</v>
+      </c>
+      <c r="N40" s="95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="B41" s="76">
+        <v>1</v>
+      </c>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="76">
+        <v>1</v>
+      </c>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="N41" s="96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14">
+      <c r="B42" s="75">
+        <v>1</v>
+      </c>
+      <c r="C42" s="66"/>
+      <c r="D42" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="66"/>
+      <c r="H42" s="75">
+        <v>1</v>
+      </c>
+      <c r="I42" s="66"/>
+      <c r="J42" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="K42" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="L42" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="M42" s="66"/>
+      <c r="N42" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="B43" s="75">
+        <v>1</v>
+      </c>
+      <c r="C43" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43" s="75">
+        <v>1</v>
+      </c>
+      <c r="I43" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="J43" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="K43" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="L43" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="M43" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="N43" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14">
+      <c r="B44" s="75">
+        <v>1</v>
+      </c>
+      <c r="C44" s="71"/>
+      <c r="D44" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="71"/>
+      <c r="H44" s="75">
+        <v>1</v>
+      </c>
+      <c r="I44" s="71"/>
+      <c r="J44" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="K44" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="L44" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="M44" s="71"/>
+      <c r="N44" s="100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14">
+      <c r="B45" s="75">
+        <v>1</v>
+      </c>
+      <c r="C45" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="75">
+        <v>1</v>
+      </c>
+      <c r="I45" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="J45" s="71"/>
+      <c r="K45" s="71"/>
+      <c r="L45" s="71"/>
+      <c r="M45" s="71"/>
+      <c r="N45" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14">
+      <c r="B46" s="75">
+        <v>1</v>
+      </c>
+      <c r="C46" s="75">
+        <v>1</v>
+      </c>
+      <c r="D46" s="75">
+        <v>1</v>
+      </c>
+      <c r="E46" s="75">
+        <v>1</v>
+      </c>
+      <c r="F46" s="75">
+        <v>1</v>
+      </c>
+      <c r="G46" s="75">
+        <v>1</v>
+      </c>
+      <c r="H46" s="75">
+        <v>1</v>
+      </c>
+      <c r="I46" s="75">
+        <v>1</v>
+      </c>
+      <c r="J46" s="75">
+        <v>1</v>
+      </c>
+      <c r="K46" s="75">
+        <v>1</v>
+      </c>
+      <c r="L46" s="75">
+        <v>1</v>
+      </c>
+      <c r="M46" s="75">
+        <v>1</v>
+      </c>
+      <c r="N46" s="95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14">
+      <c r="B47" s="76">
+        <v>1</v>
+      </c>
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" s="76">
+        <v>1</v>
+      </c>
+      <c r="I47" s="66"/>
+      <c r="J47" s="66"/>
+      <c r="K47" s="66"/>
+      <c r="L47" s="66"/>
+      <c r="M47" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="N47" s="96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14">
+      <c r="B48" s="75">
+        <v>1</v>
+      </c>
+      <c r="C48" s="66"/>
+      <c r="D48" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="66"/>
+      <c r="H48" s="75">
+        <v>1</v>
+      </c>
+      <c r="I48" s="66"/>
+      <c r="J48" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="K48" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="L48" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="M48" s="66"/>
+      <c r="N48" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" s="75">
+        <v>1</v>
+      </c>
+      <c r="C49" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="H49" s="75">
+        <v>1</v>
+      </c>
+      <c r="I49" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="J49" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="K49" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="L49" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="M49" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="N49" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" s="75">
+        <v>1</v>
+      </c>
+      <c r="C50" s="71"/>
+      <c r="D50" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" s="71"/>
+      <c r="H50" s="75">
+        <v>1</v>
+      </c>
+      <c r="I50" s="71"/>
+      <c r="J50" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="K50" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="L50" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="M50" s="71"/>
+      <c r="N50" s="100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="75">
+        <v>1</v>
+      </c>
+      <c r="C51" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="71"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="75">
+        <v>1</v>
+      </c>
+      <c r="I51" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="J51" s="71"/>
+      <c r="K51" s="71"/>
+      <c r="L51" s="71"/>
+      <c r="M51" s="71"/>
+      <c r="N51" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52" s="85">
+        <v>1</v>
+      </c>
+      <c r="C52" s="75">
+        <v>1</v>
+      </c>
+      <c r="D52" s="75">
+        <v>1</v>
+      </c>
+      <c r="E52" s="75">
+        <v>1</v>
+      </c>
+      <c r="F52" s="75">
+        <v>1</v>
+      </c>
+      <c r="G52" s="75">
+        <v>1</v>
+      </c>
+      <c r="H52" s="85">
+        <v>1</v>
+      </c>
+      <c r="I52" s="75">
+        <v>1</v>
+      </c>
+      <c r="J52" s="75">
+        <v>1</v>
+      </c>
+      <c r="K52" s="75">
+        <v>1</v>
+      </c>
+      <c r="L52" s="75">
+        <v>1</v>
+      </c>
+      <c r="M52" s="75">
+        <v>1</v>
+      </c>
+      <c r="N52" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20">
+      <c r="C54" s="75">
+        <v>1</v>
+      </c>
+      <c r="D54" s="75">
+        <v>1</v>
+      </c>
+      <c r="E54" s="75">
+        <v>1</v>
+      </c>
+      <c r="F54" s="75">
+        <v>1</v>
+      </c>
+      <c r="G54" s="75">
+        <v>1</v>
+      </c>
+      <c r="H54" s="75">
+        <v>1</v>
+      </c>
+      <c r="I54" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="N54" s="75">
+        <v>1</v>
+      </c>
+      <c r="O54" s="75">
+        <v>1</v>
+      </c>
+      <c r="P54" s="75">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="75">
+        <v>1</v>
+      </c>
+      <c r="R54" s="75">
+        <v>1</v>
+      </c>
+      <c r="S54" s="75">
+        <v>1</v>
+      </c>
+      <c r="T54" s="95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20">
+      <c r="C55" s="76">
+        <v>1</v>
+      </c>
+      <c r="D55" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="F55" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" s="86"/>
+      <c r="H55" s="87"/>
+      <c r="I55" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="N55" s="76">
+        <v>1</v>
+      </c>
+      <c r="O55" s="101"/>
+      <c r="P55" s="101"/>
+      <c r="Q55" s="101"/>
+      <c r="R55" s="101"/>
+      <c r="S55" s="109"/>
+      <c r="T55" s="96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="3:20">
+      <c r="C56" s="75">
+        <v>1</v>
+      </c>
+      <c r="D56" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E56" s="88"/>
+      <c r="F56" s="88"/>
+      <c r="G56" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="H56" s="86"/>
+      <c r="I56" s="75">
+        <v>1</v>
+      </c>
+      <c r="N56" s="75">
+        <v>1</v>
+      </c>
+      <c r="O56" s="101"/>
+      <c r="P56" s="102" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q56" s="102" t="s">
+        <v>35</v>
+      </c>
+      <c r="R56" s="102"/>
+      <c r="S56" s="101"/>
+      <c r="T56" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="3:20">
+      <c r="C57" s="75">
+        <v>1</v>
+      </c>
+      <c r="D57" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" s="88"/>
+      <c r="F57" s="88"/>
+      <c r="G57" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="H57" s="88"/>
+      <c r="I57" s="75">
+        <v>1</v>
+      </c>
+      <c r="N57" s="75">
+        <v>1</v>
+      </c>
+      <c r="O57" s="102"/>
+      <c r="P57" s="102" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q57" s="102"/>
+      <c r="R57" s="102" t="s">
+        <v>42</v>
+      </c>
+      <c r="S57" s="102"/>
+      <c r="T57" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20">
+      <c r="C58" s="75">
+        <v>1</v>
+      </c>
+      <c r="D58" s="88"/>
+      <c r="E58" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58" s="88"/>
+      <c r="G58" s="88"/>
+      <c r="H58" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="I58" s="100">
+        <v>1</v>
+      </c>
+      <c r="N58" s="75">
+        <v>1</v>
+      </c>
+      <c r="O58" s="102"/>
+      <c r="P58" s="102"/>
+      <c r="Q58" s="102" t="s">
+        <v>35</v>
+      </c>
+      <c r="R58" s="102" t="s">
+        <v>35</v>
+      </c>
+      <c r="S58" s="102"/>
+      <c r="T58" s="100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20">
+      <c r="C59" s="75">
+        <v>1</v>
+      </c>
+      <c r="D59" s="88"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="G59" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="H59" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="I59" s="75">
+        <v>1</v>
+      </c>
+      <c r="N59" s="75">
+        <v>1</v>
+      </c>
+      <c r="O59" s="102"/>
+      <c r="P59" s="102"/>
+      <c r="Q59" s="102"/>
+      <c r="R59" s="102"/>
+      <c r="S59" s="102"/>
+      <c r="T59" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20">
+      <c r="C60" s="85">
+        <v>1</v>
+      </c>
+      <c r="D60" s="75">
+        <v>1</v>
+      </c>
+      <c r="E60" s="75">
+        <v>1</v>
+      </c>
+      <c r="F60" s="75">
+        <v>1</v>
+      </c>
+      <c r="G60" s="75">
+        <v>1</v>
+      </c>
+      <c r="H60" s="75">
+        <v>1</v>
+      </c>
+      <c r="I60" s="75">
+        <v>1</v>
+      </c>
+      <c r="N60" s="85">
+        <v>1</v>
+      </c>
+      <c r="O60" s="75">
+        <v>1</v>
+      </c>
+      <c r="P60" s="75">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="75">
+        <v>1</v>
+      </c>
+      <c r="R60" s="75">
+        <v>1</v>
+      </c>
+      <c r="S60" s="75">
+        <v>1</v>
+      </c>
+      <c r="T60" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20">
+      <c r="C62" s="75">
+        <v>1</v>
+      </c>
+      <c r="D62" s="75">
+        <v>1</v>
+      </c>
+      <c r="E62" s="75">
+        <v>1</v>
+      </c>
+      <c r="F62" s="75">
+        <v>1</v>
+      </c>
+      <c r="G62" s="75">
+        <v>1</v>
+      </c>
+      <c r="H62" s="75">
+        <v>1</v>
+      </c>
+      <c r="I62" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="N62" s="75">
+        <v>1</v>
+      </c>
+      <c r="O62" s="75">
+        <v>1</v>
+      </c>
+      <c r="P62" s="75">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="75">
+        <v>1</v>
+      </c>
+      <c r="R62" s="75">
+        <v>1</v>
+      </c>
+      <c r="S62" s="75">
+        <v>1</v>
+      </c>
+      <c r="T62" s="95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20">
+      <c r="C63" s="76">
+        <v>1</v>
+      </c>
+      <c r="D63" s="77"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63" s="77"/>
+      <c r="H63" s="79"/>
+      <c r="I63" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="N63" s="76">
+        <v>1</v>
+      </c>
+      <c r="O63" s="77"/>
+      <c r="P63" s="77"/>
+      <c r="Q63" s="77"/>
+      <c r="R63" s="77"/>
+      <c r="S63" s="79"/>
+      <c r="T63" s="96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20">
+      <c r="C64" s="75">
+        <v>1</v>
+      </c>
+      <c r="D64" s="77"/>
+      <c r="E64" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="F64" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="H64" s="77"/>
+      <c r="I64" s="75">
+        <v>1</v>
+      </c>
+      <c r="N64" s="75">
+        <v>1</v>
+      </c>
+      <c r="O64" s="77"/>
+      <c r="P64" s="89"/>
+      <c r="Q64" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="R64" s="90"/>
+      <c r="S64" s="77"/>
+      <c r="T64" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="3:20">
+      <c r="C65" s="75">
+        <v>1</v>
+      </c>
+      <c r="D65" s="83"/>
+      <c r="E65" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="F65" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="H65" s="83"/>
+      <c r="I65" s="75">
+        <v>1</v>
+      </c>
+      <c r="N65" s="75">
+        <v>1</v>
+      </c>
+      <c r="O65" s="83"/>
+      <c r="P65" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="34"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-    </row>
-    <row r="6" spans="2:22">
-      <c r="B6" s="34"/>
-      <c r="C6" s="42" t="s">
+      <c r="Q65" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="R65" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="34"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-    </row>
-    <row r="7" spans="2:22">
-      <c r="B7" s="34"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="44"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="63"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-    </row>
-    <row r="8" spans="2:22">
-      <c r="B8" s="34"/>
-      <c r="C8" s="42" t="s">
+      <c r="S65" s="83"/>
+      <c r="T65" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="3:20">
+      <c r="C66" s="75">
+        <v>1</v>
+      </c>
+      <c r="D66" s="83"/>
+      <c r="E66" s="89" t="s">
+        <v>42</v>
+      </c>
+      <c r="F66" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="34"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" s="63"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
-    </row>
-    <row r="9" spans="2:22">
-      <c r="B9" s="45"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="34"/>
-      <c r="K9" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
-    </row>
-    <row r="10" spans="2:22">
-      <c r="B10" s="46"/>
-      <c r="H10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="64"/>
-    </row>
-    <row r="11" spans="2:22">
-      <c r="B11" s="46"/>
-      <c r="H11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="64"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="64"/>
-    </row>
-    <row r="12" spans="2:35">
-      <c r="B12" s="46"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="64"/>
-      <c r="AE12" s="38"/>
-      <c r="AF12" s="38"/>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="38"/>
-      <c r="AI12" s="39" t="s">
+      <c r="G66" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="H66" s="83"/>
+      <c r="I66" s="100">
+        <v>1</v>
+      </c>
+      <c r="N66" s="75">
+        <v>1</v>
+      </c>
+      <c r="O66" s="83"/>
+      <c r="P66" s="89"/>
+      <c r="Q66" s="118" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="2:35">
-      <c r="B13" s="46"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
-      <c r="AE13" s="38"/>
-      <c r="AF13" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG13" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH13" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI13" s="38"/>
-    </row>
-    <row r="14" spans="2:35">
-      <c r="B14" s="46"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="64"/>
-      <c r="AE14" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF14" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG14" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH14" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI14" s="42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="2:35">
-      <c r="B15" s="46"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="64"/>
-      <c r="T15" s="64"/>
-      <c r="U15" s="64"/>
-      <c r="AE15" s="82"/>
-      <c r="AF15" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG15" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH15" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI15" s="43"/>
-    </row>
-    <row r="16" spans="2:35">
-      <c r="B16" s="46"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38" t="s">
+      <c r="R66" s="90"/>
+      <c r="S66" s="83"/>
+      <c r="T66" s="100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="3:20">
+      <c r="C67" s="75">
+        <v>1</v>
+      </c>
+      <c r="D67" s="83"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="U16" s="75"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="83"/>
-      <c r="AA16" s="84"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="85"/>
-      <c r="AE16" s="82" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF16" s="82"/>
-      <c r="AG16" s="43"/>
-      <c r="AH16" s="43"/>
-      <c r="AI16" s="38"/>
-    </row>
-    <row r="17" spans="2:31">
-      <c r="B17" s="46"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="S17" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="T17" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="U17" s="73"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="X17" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y17" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z17" s="86"/>
-      <c r="AA17" s="86"/>
-      <c r="AB17" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC17" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD17" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE17" s="85"/>
-    </row>
-    <row r="18" spans="2:31">
-      <c r="B18" s="46"/>
-      <c r="Q18" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="R18" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="S18" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="T18" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="U18" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="V18" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="W18" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="X18" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y18" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z18" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA18" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB18" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC18" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD18" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE18" s="42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="2:31">
-      <c r="B19" s="46"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="S19" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="T19" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="U19" s="74"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="X19" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y19" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z19" s="88"/>
-      <c r="AA19" s="88"/>
-      <c r="AB19" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC19" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD19" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE19" s="43"/>
-    </row>
-    <row r="20" spans="2:35">
-      <c r="B20" s="46"/>
-      <c r="Q20" s="77" t="s">
+      <c r="G67" s="77"/>
+      <c r="H67" s="77"/>
+      <c r="I67" s="75">
+        <v>1</v>
+      </c>
+      <c r="N67" s="75">
+        <v>1</v>
+      </c>
+      <c r="O67" s="83"/>
+      <c r="P67" s="77"/>
+      <c r="Q67" s="83"/>
+      <c r="R67" s="77"/>
+      <c r="S67" s="77"/>
+      <c r="T67" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="3:20">
+      <c r="C68" s="85">
+        <v>1</v>
+      </c>
+      <c r="D68" s="75">
+        <v>1</v>
+      </c>
+      <c r="E68" s="75">
+        <v>1</v>
+      </c>
+      <c r="F68" s="75">
+        <v>1</v>
+      </c>
+      <c r="G68" s="75">
+        <v>1</v>
+      </c>
+      <c r="H68" s="75">
+        <v>1</v>
+      </c>
+      <c r="I68" s="75">
+        <v>1</v>
+      </c>
+      <c r="N68" s="85">
+        <v>1</v>
+      </c>
+      <c r="O68" s="75">
+        <v>1</v>
+      </c>
+      <c r="P68" s="75">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="75">
+        <v>1</v>
+      </c>
+      <c r="R68" s="75">
+        <v>1</v>
+      </c>
+      <c r="S68" s="75">
+        <v>1</v>
+      </c>
+      <c r="T68" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9">
+      <c r="C70" s="75">
+        <v>1</v>
+      </c>
+      <c r="D70" s="75">
+        <v>1</v>
+      </c>
+      <c r="E70" s="75">
+        <v>1</v>
+      </c>
+      <c r="F70" s="75">
+        <v>1</v>
+      </c>
+      <c r="G70" s="75">
+        <v>1</v>
+      </c>
+      <c r="H70" s="75">
+        <v>1</v>
+      </c>
+      <c r="I70" s="95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9">
+      <c r="C71" s="76">
+        <v>1</v>
+      </c>
+      <c r="D71" s="101"/>
+      <c r="E71" s="101"/>
+      <c r="F71" s="101"/>
+      <c r="G71" s="101"/>
+      <c r="H71" s="109"/>
+      <c r="I71" s="96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9">
+      <c r="C72" s="75">
+        <v>1</v>
+      </c>
+      <c r="D72" s="101"/>
+      <c r="E72" s="102"/>
+      <c r="F72" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="R20" s="78" t="s">
-        <v>46</v>
-      </c>
-      <c r="S20" s="77" t="s">
+      <c r="G72" s="102"/>
+      <c r="H72" s="101"/>
+      <c r="I72" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9">
+      <c r="C73" s="75">
+        <v>1</v>
+      </c>
+      <c r="D73" s="102"/>
+      <c r="E73" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="79"/>
-      <c r="W20" s="43"/>
-      <c r="X20" s="43"/>
-      <c r="Y20" s="43"/>
-      <c r="Z20" s="89"/>
-      <c r="AA20" s="89"/>
-      <c r="AB20" s="43"/>
-      <c r="AC20" s="43"/>
-      <c r="AD20" s="43"/>
-      <c r="AE20" s="38"/>
-      <c r="AF20" s="38"/>
-      <c r="AG20" s="38"/>
-      <c r="AH20" s="38"/>
-      <c r="AI20" s="39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="2:35">
-      <c r="B21" s="46"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="80" t="s">
+      <c r="F73" s="102"/>
+      <c r="G73" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="R21" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="S21" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="T21" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="U21" s="64"/>
-      <c r="V21" s="64"/>
-      <c r="W21" s="64"/>
-      <c r="X21" s="64"/>
-      <c r="Y21" s="64"/>
-      <c r="Z21" s="64"/>
-      <c r="AA21" s="64"/>
-      <c r="AB21" s="64"/>
-      <c r="AC21" s="64"/>
-      <c r="AD21" s="64"/>
-      <c r="AE21" s="38"/>
-      <c r="AF21" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG21" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH21" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI21" s="38"/>
-    </row>
-    <row r="22" spans="2:35">
-      <c r="B22" s="46"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="R22" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="S22" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="T22" s="38"/>
-      <c r="U22" s="64"/>
-      <c r="V22" s="64"/>
-      <c r="W22" s="64"/>
-      <c r="X22" s="64"/>
-      <c r="Y22" s="64"/>
-      <c r="Z22" s="64"/>
-      <c r="AA22" s="64"/>
-      <c r="AB22" s="64"/>
-      <c r="AC22" s="64"/>
-      <c r="AD22" s="64"/>
-      <c r="AE22" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF22" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG22" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH22" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI22" s="42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="2:35">
-      <c r="B23" s="46"/>
-      <c r="P23" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q23" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="R23" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="S23" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="T23" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="U23" s="64"/>
-      <c r="V23" s="64"/>
-      <c r="W23" s="64"/>
-      <c r="X23" s="64"/>
-      <c r="Y23" s="64"/>
-      <c r="Z23" s="64"/>
-      <c r="AA23" s="64"/>
-      <c r="AB23" s="64"/>
-      <c r="AC23" s="64"/>
-      <c r="AD23" s="64"/>
-      <c r="AE23" s="43"/>
-      <c r="AF23" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG23" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH23" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI23" s="43"/>
-    </row>
-    <row r="24" spans="2:35">
-      <c r="B24" s="33"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="R24" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="S24" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="T24" s="43"/>
-      <c r="U24" s="64"/>
-      <c r="V24" s="64"/>
-      <c r="W24" s="64"/>
-      <c r="X24" s="64"/>
-      <c r="Y24" s="64"/>
-      <c r="Z24" s="64"/>
-      <c r="AA24" s="64"/>
-      <c r="AB24" s="64"/>
-      <c r="AC24" s="64"/>
-      <c r="AD24" s="64"/>
-      <c r="AE24" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF24" s="43"/>
-      <c r="AG24" s="43"/>
-      <c r="AH24" s="43"/>
-      <c r="AI24" s="43"/>
-    </row>
-    <row r="25" spans="2:22">
-      <c r="B25" s="33"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="64"/>
-      <c r="V25" s="64"/>
-    </row>
-    <row r="26" spans="2:22">
-      <c r="B26" s="33"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="64"/>
-      <c r="S26" s="64"/>
-      <c r="T26" s="64"/>
-      <c r="U26" s="64"/>
-      <c r="V26" s="64"/>
-    </row>
-    <row r="27" spans="2:22">
-      <c r="B27" s="33"/>
-      <c r="C27" s="47">
-        <v>1</v>
-      </c>
-      <c r="D27" s="47">
-        <v>1</v>
-      </c>
-      <c r="E27" s="47">
-        <v>1</v>
-      </c>
-      <c r="F27" s="47">
-        <v>1</v>
-      </c>
-      <c r="G27" s="47">
-        <v>1</v>
-      </c>
-      <c r="H27" s="47">
-        <v>1</v>
-      </c>
-      <c r="I27" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="R27" s="64"/>
-      <c r="S27" s="64"/>
-      <c r="T27" s="64"/>
-      <c r="U27" s="64"/>
-      <c r="V27" s="64"/>
-    </row>
-    <row r="28" spans="2:22">
-      <c r="B28" s="33"/>
-      <c r="C28" s="48">
-        <v>1</v>
-      </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="49"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="M28" s="38"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="64"/>
-      <c r="T28" s="64"/>
-      <c r="U28" s="64"/>
-      <c r="V28" s="64"/>
-    </row>
-    <row r="29" spans="2:22">
-      <c r="B29" s="33"/>
-      <c r="C29" s="47">
-        <v>1</v>
-      </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="H29" s="49"/>
-      <c r="I29" s="47">
-        <v>1</v>
-      </c>
-      <c r="M29" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="N29" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="O29" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="P29" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q29" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="64"/>
-      <c r="U29" s="64"/>
-      <c r="V29" s="64"/>
-    </row>
-    <row r="30" spans="2:22">
-      <c r="B30" s="33"/>
-      <c r="C30" s="47">
-        <v>1</v>
-      </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="H30" s="55"/>
-      <c r="I30" s="47">
-        <v>1</v>
-      </c>
-      <c r="M30" s="43"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="64"/>
-      <c r="S30" s="64"/>
-      <c r="T30" s="64"/>
-      <c r="U30" s="64"/>
-      <c r="V30" s="64"/>
-    </row>
-    <row r="31" spans="2:22">
-      <c r="B31" s="33"/>
-      <c r="C31" s="47">
-        <v>1</v>
-      </c>
-      <c r="D31" s="55"/>
-      <c r="E31" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="55"/>
-      <c r="I31" s="72">
-        <v>1</v>
-      </c>
-      <c r="M31" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="64"/>
-      <c r="S31" s="64"/>
-      <c r="T31" s="64"/>
-      <c r="U31" s="64"/>
-      <c r="V31" s="64"/>
-    </row>
-    <row r="32" spans="2:22">
-      <c r="B32" s="33"/>
-      <c r="C32" s="47">
-        <v>1</v>
-      </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="47">
-        <v>1</v>
-      </c>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="64"/>
-      <c r="S32" s="64"/>
-      <c r="T32" s="64"/>
-      <c r="U32" s="64"/>
-      <c r="V32" s="64"/>
-    </row>
-    <row r="33" spans="2:22">
-      <c r="B33" s="33"/>
-      <c r="C33" s="57">
-        <v>1</v>
-      </c>
-      <c r="D33" s="47">
-        <v>1</v>
-      </c>
-      <c r="E33" s="47">
-        <v>1</v>
-      </c>
-      <c r="F33" s="47">
-        <v>1</v>
-      </c>
-      <c r="G33" s="47">
-        <v>1</v>
-      </c>
-      <c r="H33" s="47">
-        <v>1</v>
-      </c>
-      <c r="I33" s="47">
-        <v>1</v>
-      </c>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="64"/>
-      <c r="S33" s="64"/>
-      <c r="T33" s="64"/>
-      <c r="U33" s="64"/>
-      <c r="V33" s="64"/>
-    </row>
-    <row r="34" spans="2:22">
-      <c r="B34" s="33"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="64"/>
-      <c r="S34" s="64"/>
-      <c r="T34" s="64"/>
-      <c r="U34" s="64"/>
-      <c r="V34" s="64"/>
-    </row>
-    <row r="35" spans="2:22">
-      <c r="B35" s="33"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="64"/>
-      <c r="S35" s="64"/>
-      <c r="T35" s="64"/>
-      <c r="U35" s="64"/>
-      <c r="V35" s="64"/>
-    </row>
-    <row r="36" spans="2:22">
-      <c r="B36" s="33"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="64"/>
-      <c r="S36" s="64"/>
-      <c r="T36" s="64"/>
-      <c r="U36" s="64"/>
-      <c r="V36" s="64"/>
-    </row>
-    <row r="37" spans="2:22">
-      <c r="B37" s="33"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="64"/>
-      <c r="T37" s="64"/>
-      <c r="U37" s="64"/>
-      <c r="V37" s="64"/>
-    </row>
-    <row r="38" spans="14:22">
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="64"/>
-      <c r="S38" s="64"/>
-      <c r="T38" s="64"/>
-      <c r="U38" s="64"/>
-      <c r="V38" s="64"/>
-    </row>
-    <row r="39" spans="14:22">
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="35"/>
-      <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
-      <c r="U39" s="35"/>
-      <c r="V39" s="35"/>
-    </row>
-    <row r="40" spans="2:14">
-      <c r="B40" s="47">
-        <v>1</v>
-      </c>
-      <c r="C40" s="47">
-        <v>1</v>
-      </c>
-      <c r="D40" s="47">
-        <v>1</v>
-      </c>
-      <c r="E40" s="47">
-        <v>1</v>
-      </c>
-      <c r="F40" s="47">
-        <v>1</v>
-      </c>
-      <c r="G40" s="47">
-        <v>1</v>
-      </c>
-      <c r="H40" s="47">
-        <v>1</v>
-      </c>
-      <c r="I40" s="47">
-        <v>1</v>
-      </c>
-      <c r="J40" s="47">
-        <v>1</v>
-      </c>
-      <c r="K40" s="47">
-        <v>1</v>
-      </c>
-      <c r="L40" s="47">
-        <v>1</v>
-      </c>
-      <c r="M40" s="47">
-        <v>1</v>
-      </c>
-      <c r="N40" s="67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14">
-      <c r="B41" s="48">
-        <v>1</v>
-      </c>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" s="48">
-        <v>1</v>
-      </c>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="N41" s="68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14">
-      <c r="B42" s="47">
-        <v>1</v>
-      </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" s="38"/>
-      <c r="H42" s="47">
-        <v>1</v>
-      </c>
-      <c r="I42" s="38"/>
-      <c r="J42" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="K42" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="L42" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="M42" s="38"/>
-      <c r="N42" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14">
-      <c r="B43" s="47">
-        <v>1</v>
-      </c>
-      <c r="C43" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="H43" s="47">
-        <v>1</v>
-      </c>
-      <c r="I43" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="J43" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="K43" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="L43" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="M43" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="N43" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14">
-      <c r="B44" s="47">
-        <v>1</v>
-      </c>
-      <c r="C44" s="43"/>
-      <c r="D44" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="E44" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="F44" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="G44" s="43"/>
-      <c r="H44" s="47">
-        <v>1</v>
-      </c>
-      <c r="I44" s="43"/>
-      <c r="J44" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="K44" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="L44" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="M44" s="43"/>
-      <c r="N44" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14">
-      <c r="B45" s="47">
-        <v>1</v>
-      </c>
-      <c r="C45" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="47">
-        <v>1</v>
-      </c>
-      <c r="I45" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14">
-      <c r="B46" s="47">
-        <v>1</v>
-      </c>
-      <c r="C46" s="47">
-        <v>1</v>
-      </c>
-      <c r="D46" s="47">
-        <v>1</v>
-      </c>
-      <c r="E46" s="47">
-        <v>1</v>
-      </c>
-      <c r="F46" s="47">
-        <v>1</v>
-      </c>
-      <c r="G46" s="47">
-        <v>1</v>
-      </c>
-      <c r="H46" s="47">
-        <v>1</v>
-      </c>
-      <c r="I46" s="47">
-        <v>1</v>
-      </c>
-      <c r="J46" s="47">
-        <v>1</v>
-      </c>
-      <c r="K46" s="47">
-        <v>1</v>
-      </c>
-      <c r="L46" s="47">
-        <v>1</v>
-      </c>
-      <c r="M46" s="47">
-        <v>1</v>
-      </c>
-      <c r="N46" s="67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14">
-      <c r="B47" s="48">
-        <v>1</v>
-      </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H47" s="48">
-        <v>1</v>
-      </c>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="N47" s="68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14">
-      <c r="B48" s="47">
-        <v>1</v>
-      </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="F48" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="G48" s="38"/>
-      <c r="H48" s="47">
-        <v>1</v>
-      </c>
-      <c r="I48" s="38"/>
-      <c r="J48" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="K48" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="L48" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="M48" s="38"/>
-      <c r="N48" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14">
-      <c r="B49" s="47">
-        <v>1</v>
-      </c>
-      <c r="C49" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="E49" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="G49" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="H49" s="47">
-        <v>1</v>
-      </c>
-      <c r="I49" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="J49" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="K49" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="L49" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="M49" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="N49" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14">
-      <c r="B50" s="47">
-        <v>1</v>
-      </c>
-      <c r="C50" s="43"/>
-      <c r="D50" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="E50" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="F50" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="G50" s="43"/>
-      <c r="H50" s="47">
-        <v>1</v>
-      </c>
-      <c r="I50" s="43"/>
-      <c r="J50" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="K50" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="L50" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="M50" s="43"/>
-      <c r="N50" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14">
-      <c r="B51" s="47">
-        <v>1</v>
-      </c>
-      <c r="C51" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="47">
-        <v>1</v>
-      </c>
-      <c r="I51" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
-      <c r="L51" s="43"/>
-      <c r="M51" s="43"/>
-      <c r="N51" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14">
-      <c r="B52" s="57">
-        <v>1</v>
-      </c>
-      <c r="C52" s="47">
-        <v>1</v>
-      </c>
-      <c r="D52" s="47">
-        <v>1</v>
-      </c>
-      <c r="E52" s="47">
-        <v>1</v>
-      </c>
-      <c r="F52" s="47">
-        <v>1</v>
-      </c>
-      <c r="G52" s="47">
-        <v>1</v>
-      </c>
-      <c r="H52" s="57">
-        <v>1</v>
-      </c>
-      <c r="I52" s="47">
-        <v>1</v>
-      </c>
-      <c r="J52" s="47">
-        <v>1</v>
-      </c>
-      <c r="K52" s="47">
-        <v>1</v>
-      </c>
-      <c r="L52" s="47">
-        <v>1</v>
-      </c>
-      <c r="M52" s="47">
-        <v>1</v>
-      </c>
-      <c r="N52" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="3:20">
-      <c r="C54" s="47">
-        <v>1</v>
-      </c>
-      <c r="D54" s="47">
-        <v>1</v>
-      </c>
-      <c r="E54" s="47">
-        <v>1</v>
-      </c>
-      <c r="F54" s="47">
-        <v>1</v>
-      </c>
-      <c r="G54" s="47">
-        <v>1</v>
-      </c>
-      <c r="H54" s="47">
-        <v>1</v>
-      </c>
-      <c r="I54" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="N54" s="47">
-        <v>1</v>
-      </c>
-      <c r="O54" s="47">
-        <v>1</v>
-      </c>
-      <c r="P54" s="47">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="47">
-        <v>1</v>
-      </c>
-      <c r="R54" s="47">
-        <v>1</v>
-      </c>
-      <c r="S54" s="47">
-        <v>1</v>
-      </c>
-      <c r="T54" s="67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20">
-      <c r="C55" s="48">
-        <v>1</v>
-      </c>
-      <c r="D55" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="E55" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="F55" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="G55" s="58"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="N55" s="48">
-        <v>1</v>
-      </c>
-      <c r="O55" s="73"/>
-      <c r="P55" s="73"/>
-      <c r="Q55" s="73"/>
-      <c r="R55" s="73"/>
-      <c r="S55" s="81"/>
-      <c r="T55" s="68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="3:20">
-      <c r="C56" s="47">
-        <v>1</v>
-      </c>
-      <c r="D56" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="H56" s="58"/>
-      <c r="I56" s="47">
-        <v>1</v>
-      </c>
-      <c r="N56" s="47">
-        <v>1</v>
-      </c>
-      <c r="O56" s="73"/>
-      <c r="P56" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q56" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="R56" s="74"/>
-      <c r="S56" s="73"/>
-      <c r="T56" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="3:20">
-      <c r="C57" s="47">
-        <v>1</v>
-      </c>
-      <c r="D57" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="H57" s="60"/>
-      <c r="I57" s="47">
-        <v>1</v>
-      </c>
-      <c r="N57" s="47">
-        <v>1</v>
-      </c>
-      <c r="O57" s="74"/>
-      <c r="P57" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q57" s="74"/>
-      <c r="R57" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="S57" s="74"/>
-      <c r="T57" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20">
-      <c r="C58" s="47">
-        <v>1</v>
-      </c>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60"/>
-      <c r="H58" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="I58" s="72">
-        <v>1</v>
-      </c>
-      <c r="N58" s="47">
-        <v>1</v>
-      </c>
-      <c r="O58" s="74"/>
-      <c r="P58" s="74"/>
-      <c r="Q58" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="R58" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="S58" s="74"/>
-      <c r="T58" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20">
-      <c r="C59" s="47">
-        <v>1</v>
-      </c>
-      <c r="D59" s="60"/>
-      <c r="E59" s="58"/>
-      <c r="F59" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="G59" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="H59" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="I59" s="47">
-        <v>1</v>
-      </c>
-      <c r="N59" s="47">
-        <v>1</v>
-      </c>
-      <c r="O59" s="74"/>
-      <c r="P59" s="74"/>
-      <c r="Q59" s="74"/>
-      <c r="R59" s="74"/>
-      <c r="S59" s="74"/>
-      <c r="T59" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20">
-      <c r="C60" s="57">
-        <v>1</v>
-      </c>
-      <c r="D60" s="47">
-        <v>1</v>
-      </c>
-      <c r="E60" s="47">
-        <v>1</v>
-      </c>
-      <c r="F60" s="47">
-        <v>1</v>
-      </c>
-      <c r="G60" s="47">
-        <v>1</v>
-      </c>
-      <c r="H60" s="47">
-        <v>1</v>
-      </c>
-      <c r="I60" s="47">
-        <v>1</v>
-      </c>
-      <c r="N60" s="57">
-        <v>1</v>
-      </c>
-      <c r="O60" s="47">
-        <v>1</v>
-      </c>
-      <c r="P60" s="47">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="47">
-        <v>1</v>
-      </c>
-      <c r="R60" s="47">
-        <v>1</v>
-      </c>
-      <c r="S60" s="47">
-        <v>1</v>
-      </c>
-      <c r="T60" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="3:20">
-      <c r="C62" s="47">
-        <v>1</v>
-      </c>
-      <c r="D62" s="47">
-        <v>1</v>
-      </c>
-      <c r="E62" s="47">
-        <v>1</v>
-      </c>
-      <c r="F62" s="47">
-        <v>1</v>
-      </c>
-      <c r="G62" s="47">
-        <v>1</v>
-      </c>
-      <c r="H62" s="47">
-        <v>1</v>
-      </c>
-      <c r="I62" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="N62" s="47">
-        <v>1</v>
-      </c>
-      <c r="O62" s="47">
-        <v>1</v>
-      </c>
-      <c r="P62" s="47">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="47">
-        <v>1</v>
-      </c>
-      <c r="R62" s="47">
-        <v>1</v>
-      </c>
-      <c r="S62" s="47">
-        <v>1</v>
-      </c>
-      <c r="T62" s="67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="3:20">
-      <c r="C63" s="48">
-        <v>1</v>
-      </c>
-      <c r="D63" s="49"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="G63" s="49"/>
-      <c r="H63" s="51"/>
-      <c r="I63" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="N63" s="48">
-        <v>1</v>
-      </c>
-      <c r="O63" s="49"/>
-      <c r="P63" s="49"/>
-      <c r="Q63" s="49"/>
-      <c r="R63" s="49"/>
-      <c r="S63" s="51"/>
-      <c r="T63" s="68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="3:20">
-      <c r="C64" s="47">
-        <v>1</v>
-      </c>
-      <c r="D64" s="49"/>
-      <c r="E64" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="F64" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="G64" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="H64" s="49"/>
-      <c r="I64" s="47">
-        <v>1</v>
-      </c>
-      <c r="N64" s="47">
-        <v>1</v>
-      </c>
-      <c r="O64" s="49"/>
-      <c r="P64" s="61"/>
-      <c r="Q64" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="R64" s="62"/>
-      <c r="S64" s="49"/>
-      <c r="T64" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="3:20">
-      <c r="C65" s="47">
-        <v>1</v>
-      </c>
-      <c r="D65" s="55"/>
-      <c r="E65" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="F65" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="H65" s="55"/>
-      <c r="I65" s="47">
-        <v>1</v>
-      </c>
-      <c r="N65" s="47">
-        <v>1</v>
-      </c>
-      <c r="O65" s="55"/>
-      <c r="P65" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q65" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="R65" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="S65" s="55"/>
-      <c r="T65" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="3:20">
-      <c r="C66" s="47">
-        <v>1</v>
-      </c>
-      <c r="D66" s="55"/>
-      <c r="E66" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="F66" s="90" t="s">
-        <v>39</v>
-      </c>
-      <c r="G66" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="H66" s="55"/>
-      <c r="I66" s="72">
-        <v>1</v>
-      </c>
-      <c r="N66" s="47">
-        <v>1</v>
-      </c>
-      <c r="O66" s="55"/>
-      <c r="P66" s="61"/>
-      <c r="Q66" s="90" t="s">
-        <v>39</v>
-      </c>
-      <c r="R66" s="62"/>
-      <c r="S66" s="55"/>
-      <c r="T66" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="3:20">
-      <c r="C67" s="47">
-        <v>1</v>
-      </c>
-      <c r="D67" s="55"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="G67" s="49"/>
-      <c r="H67" s="49"/>
-      <c r="I67" s="47">
-        <v>1</v>
-      </c>
-      <c r="N67" s="47">
-        <v>1</v>
-      </c>
-      <c r="O67" s="55"/>
-      <c r="P67" s="49"/>
-      <c r="Q67" s="55"/>
-      <c r="R67" s="49"/>
-      <c r="S67" s="49"/>
-      <c r="T67" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="3:20">
-      <c r="C68" s="57">
-        <v>1</v>
-      </c>
-      <c r="D68" s="47">
-        <v>1</v>
-      </c>
-      <c r="E68" s="47">
-        <v>1</v>
-      </c>
-      <c r="F68" s="47">
-        <v>1</v>
-      </c>
-      <c r="G68" s="47">
-        <v>1</v>
-      </c>
-      <c r="H68" s="47">
-        <v>1</v>
-      </c>
-      <c r="I68" s="47">
-        <v>1</v>
-      </c>
-      <c r="N68" s="57">
-        <v>1</v>
-      </c>
-      <c r="O68" s="47">
-        <v>1</v>
-      </c>
-      <c r="P68" s="47">
-        <v>1</v>
-      </c>
-      <c r="Q68" s="47">
-        <v>1</v>
-      </c>
-      <c r="R68" s="47">
-        <v>1</v>
-      </c>
-      <c r="S68" s="47">
-        <v>1</v>
-      </c>
-      <c r="T68" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="3:9">
-      <c r="C70" s="47">
-        <v>1</v>
-      </c>
-      <c r="D70" s="47">
-        <v>1</v>
-      </c>
-      <c r="E70" s="47">
-        <v>1</v>
-      </c>
-      <c r="F70" s="47">
-        <v>1</v>
-      </c>
-      <c r="G70" s="47">
-        <v>1</v>
-      </c>
-      <c r="H70" s="47">
-        <v>1</v>
-      </c>
-      <c r="I70" s="67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="3:9">
-      <c r="C71" s="48">
-        <v>1</v>
-      </c>
-      <c r="D71" s="73"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="73"/>
-      <c r="G71" s="73"/>
-      <c r="H71" s="81"/>
-      <c r="I71" s="68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="3:9">
-      <c r="C72" s="47">
-        <v>1</v>
-      </c>
-      <c r="D72" s="73"/>
-      <c r="E72" s="74"/>
-      <c r="F72" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="G72" s="74"/>
-      <c r="H72" s="73"/>
-      <c r="I72" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="3:9">
-      <c r="C73" s="47">
-        <v>1</v>
-      </c>
-      <c r="D73" s="74"/>
-      <c r="E73" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="F73" s="74"/>
-      <c r="G73" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="H73" s="74"/>
-      <c r="I73" s="47">
+      <c r="H73" s="102"/>
+      <c r="I73" s="75">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="3:9">
-      <c r="C74" s="47">
-        <v>1</v>
-      </c>
-      <c r="D74" s="74"/>
-      <c r="E74" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="F74" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="G74" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="H74" s="74"/>
-      <c r="I74" s="72">
+      <c r="C74" s="75">
+        <v>1</v>
+      </c>
+      <c r="D74" s="102"/>
+      <c r="E74" s="102" t="s">
+        <v>49</v>
+      </c>
+      <c r="F74" s="102" t="s">
+        <v>49</v>
+      </c>
+      <c r="G74" s="102" t="s">
+        <v>49</v>
+      </c>
+      <c r="H74" s="102"/>
+      <c r="I74" s="100">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="3:9">
-      <c r="C75" s="47">
-        <v>1</v>
-      </c>
-      <c r="D75" s="74"/>
-      <c r="E75" s="74"/>
-      <c r="F75" s="74"/>
-      <c r="G75" s="74"/>
-      <c r="H75" s="74"/>
-      <c r="I75" s="47">
+      <c r="C75" s="75">
+        <v>1</v>
+      </c>
+      <c r="D75" s="102"/>
+      <c r="E75" s="102"/>
+      <c r="F75" s="102"/>
+      <c r="G75" s="102"/>
+      <c r="H75" s="102"/>
+      <c r="I75" s="75">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="3:9">
-      <c r="C76" s="57">
-        <v>1</v>
-      </c>
-      <c r="D76" s="47">
-        <v>1</v>
-      </c>
-      <c r="E76" s="47">
-        <v>1</v>
-      </c>
-      <c r="F76" s="47">
-        <v>1</v>
-      </c>
-      <c r="G76" s="47">
-        <v>1</v>
-      </c>
-      <c r="H76" s="47">
-        <v>1</v>
-      </c>
-      <c r="I76" s="47">
+      <c r="C76" s="85">
+        <v>1</v>
+      </c>
+      <c r="D76" s="75">
+        <v>1</v>
+      </c>
+      <c r="E76" s="75">
+        <v>1</v>
+      </c>
+      <c r="F76" s="75">
+        <v>1</v>
+      </c>
+      <c r="G76" s="75">
+        <v>1</v>
+      </c>
+      <c r="H76" s="75">
+        <v>1</v>
+      </c>
+      <c r="I76" s="75">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="3:4">
-      <c r="C86" s="91"/>
-      <c r="D86" s="64"/>
+      <c r="C86" s="119"/>
+      <c r="D86" s="92"/>
     </row>
     <row r="87" spans="3:4">
-      <c r="C87" s="91"/>
-      <c r="D87" s="64"/>
+      <c r="C87" s="119"/>
+      <c r="D87" s="92"/>
     </row>
     <row r="88" spans="3:4">
-      <c r="C88" s="91"/>
-      <c r="D88" s="64"/>
+      <c r="C88" s="119"/>
+      <c r="D88" s="92"/>
     </row>
     <row r="89" spans="3:4">
-      <c r="C89" s="91"/>
-      <c r="D89" s="64"/>
+      <c r="C89" s="119"/>
+      <c r="D89" s="92"/>
     </row>
     <row r="90" spans="3:15">
-      <c r="C90" s="91"/>
-      <c r="D90" s="64"/>
-      <c r="E90" s="64"/>
-      <c r="F90" s="64"/>
-      <c r="G90" s="64"/>
-      <c r="H90" s="64"/>
-      <c r="I90" s="64"/>
-      <c r="J90" s="64"/>
-      <c r="K90" s="64"/>
-      <c r="L90" s="64"/>
-      <c r="M90" s="64"/>
-      <c r="N90" s="91"/>
-      <c r="O90" s="91"/>
+      <c r="C90" s="119"/>
+      <c r="D90" s="92"/>
+      <c r="E90" s="92"/>
+      <c r="F90" s="92"/>
+      <c r="G90" s="92"/>
+      <c r="H90" s="92"/>
+      <c r="I90" s="92"/>
+      <c r="J90" s="92"/>
+      <c r="K90" s="92"/>
+      <c r="L90" s="92"/>
+      <c r="M90" s="92"/>
+      <c r="N90" s="119"/>
+      <c r="O90" s="119"/>
     </row>
     <row r="91" spans="3:20">
-      <c r="C91" s="91"/>
-      <c r="D91" s="64"/>
-      <c r="E91" s="64"/>
-      <c r="F91" s="64"/>
-      <c r="G91" s="64"/>
-      <c r="H91" s="64"/>
-      <c r="I91" s="64"/>
-      <c r="J91" s="64"/>
-      <c r="K91" s="64"/>
-      <c r="L91" s="64"/>
-      <c r="M91" s="64"/>
-      <c r="N91" s="64"/>
-      <c r="O91" s="64"/>
-      <c r="P91" s="64"/>
-      <c r="Q91" s="64"/>
-      <c r="R91" s="64"/>
-      <c r="S91" s="91"/>
-      <c r="T91" s="91"/>
+      <c r="C91" s="119"/>
+      <c r="D91" s="92"/>
+      <c r="E91" s="92"/>
+      <c r="F91" s="92"/>
+      <c r="G91" s="92"/>
+      <c r="H91" s="92"/>
+      <c r="I91" s="92"/>
+      <c r="J91" s="92"/>
+      <c r="K91" s="92"/>
+      <c r="L91" s="92"/>
+      <c r="M91" s="92"/>
+      <c r="N91" s="92"/>
+      <c r="O91" s="92"/>
+      <c r="P91" s="92"/>
+      <c r="Q91" s="92"/>
+      <c r="R91" s="92"/>
+      <c r="S91" s="119"/>
+      <c r="T91" s="119"/>
     </row>
     <row r="92" spans="3:20">
-      <c r="C92" s="91"/>
-      <c r="D92" s="64"/>
-      <c r="E92" s="64"/>
-      <c r="F92" s="64"/>
-      <c r="G92" s="64"/>
-      <c r="H92" s="64"/>
-      <c r="I92" s="64"/>
-      <c r="J92" s="64"/>
-      <c r="K92" s="64"/>
-      <c r="L92" s="64"/>
-      <c r="M92" s="64"/>
-      <c r="N92" s="64"/>
-      <c r="O92" s="64"/>
-      <c r="P92" s="64"/>
-      <c r="Q92" s="64"/>
-      <c r="R92" s="64"/>
-      <c r="S92" s="91"/>
-      <c r="T92" s="91"/>
+      <c r="C92" s="119"/>
+      <c r="D92" s="92"/>
+      <c r="E92" s="92"/>
+      <c r="F92" s="92"/>
+      <c r="G92" s="92"/>
+      <c r="H92" s="92"/>
+      <c r="I92" s="92"/>
+      <c r="J92" s="92"/>
+      <c r="K92" s="92"/>
+      <c r="L92" s="92"/>
+      <c r="M92" s="92"/>
+      <c r="N92" s="92"/>
+      <c r="O92" s="92"/>
+      <c r="P92" s="92"/>
+      <c r="Q92" s="92"/>
+      <c r="R92" s="92"/>
+      <c r="S92" s="119"/>
+      <c r="T92" s="119"/>
     </row>
     <row r="93" spans="3:20">
-      <c r="C93" s="91"/>
-      <c r="D93" s="64"/>
-      <c r="E93" s="64"/>
-      <c r="F93" s="64"/>
-      <c r="G93" s="64"/>
-      <c r="H93" s="64"/>
-      <c r="I93" s="64"/>
-      <c r="J93" s="64"/>
-      <c r="K93" s="64"/>
-      <c r="L93" s="64"/>
-      <c r="M93" s="64"/>
-      <c r="N93" s="64"/>
-      <c r="O93" s="64"/>
-      <c r="P93" s="64"/>
-      <c r="Q93" s="64"/>
-      <c r="R93" s="64"/>
-      <c r="S93" s="91"/>
-      <c r="T93" s="91"/>
+      <c r="C93" s="119"/>
+      <c r="D93" s="92"/>
+      <c r="E93" s="92"/>
+      <c r="F93" s="92"/>
+      <c r="G93" s="92"/>
+      <c r="H93" s="92"/>
+      <c r="I93" s="92"/>
+      <c r="J93" s="92"/>
+      <c r="K93" s="92"/>
+      <c r="L93" s="92"/>
+      <c r="M93" s="92"/>
+      <c r="N93" s="92"/>
+      <c r="O93" s="92"/>
+      <c r="P93" s="92"/>
+      <c r="Q93" s="92"/>
+      <c r="R93" s="92"/>
+      <c r="S93" s="119"/>
+      <c r="T93" s="119"/>
     </row>
     <row r="94" spans="3:20">
-      <c r="C94" s="91"/>
-      <c r="D94" s="64"/>
-      <c r="E94" s="64"/>
-      <c r="F94" s="64"/>
-      <c r="G94" s="64"/>
-      <c r="H94" s="64"/>
-      <c r="I94" s="64"/>
-      <c r="J94" s="64"/>
-      <c r="K94" s="64"/>
-      <c r="L94" s="64"/>
-      <c r="M94" s="64"/>
-      <c r="N94" s="64"/>
-      <c r="O94" s="64"/>
-      <c r="P94" s="64"/>
-      <c r="Q94" s="64"/>
-      <c r="R94" s="64"/>
-      <c r="S94" s="91"/>
-      <c r="T94" s="91"/>
+      <c r="C94" s="119"/>
+      <c r="D94" s="92"/>
+      <c r="E94" s="92"/>
+      <c r="F94" s="92"/>
+      <c r="G94" s="92"/>
+      <c r="H94" s="92"/>
+      <c r="I94" s="92"/>
+      <c r="J94" s="92"/>
+      <c r="K94" s="92"/>
+      <c r="L94" s="92"/>
+      <c r="M94" s="92"/>
+      <c r="N94" s="92"/>
+      <c r="O94" s="92"/>
+      <c r="P94" s="92"/>
+      <c r="Q94" s="92"/>
+      <c r="R94" s="92"/>
+      <c r="S94" s="119"/>
+      <c r="T94" s="119"/>
     </row>
     <row r="95" spans="3:20">
-      <c r="C95" s="91"/>
-      <c r="D95" s="64"/>
-      <c r="E95" s="64"/>
-      <c r="F95" s="64"/>
-      <c r="G95" s="64"/>
-      <c r="H95" s="64"/>
-      <c r="I95" s="64"/>
-      <c r="J95" s="64"/>
-      <c r="K95" s="64"/>
-      <c r="L95" s="64"/>
-      <c r="M95" s="64"/>
-      <c r="N95" s="64"/>
-      <c r="O95" s="64"/>
-      <c r="P95" s="64"/>
-      <c r="Q95" s="64"/>
-      <c r="R95" s="64"/>
-      <c r="S95" s="91"/>
-      <c r="T95" s="91"/>
+      <c r="C95" s="119"/>
+      <c r="D95" s="92"/>
+      <c r="E95" s="92"/>
+      <c r="F95" s="92"/>
+      <c r="G95" s="92"/>
+      <c r="H95" s="92"/>
+      <c r="I95" s="92"/>
+      <c r="J95" s="92"/>
+      <c r="K95" s="92"/>
+      <c r="L95" s="92"/>
+      <c r="M95" s="92"/>
+      <c r="N95" s="92"/>
+      <c r="O95" s="92"/>
+      <c r="P95" s="92"/>
+      <c r="Q95" s="92"/>
+      <c r="R95" s="92"/>
+      <c r="S95" s="119"/>
+      <c r="T95" s="119"/>
     </row>
     <row r="96" spans="3:20">
-      <c r="C96" s="91"/>
-      <c r="D96" s="64"/>
-      <c r="E96" s="64"/>
-      <c r="F96" s="64"/>
-      <c r="G96" s="64"/>
-      <c r="H96" s="64"/>
-      <c r="I96" s="64"/>
-      <c r="J96" s="64"/>
-      <c r="K96" s="64"/>
-      <c r="L96" s="64"/>
-      <c r="M96" s="64"/>
-      <c r="N96" s="64"/>
-      <c r="O96" s="64"/>
-      <c r="P96" s="64"/>
-      <c r="Q96" s="64"/>
-      <c r="R96" s="64"/>
-      <c r="S96" s="91"/>
-      <c r="T96" s="91"/>
+      <c r="C96" s="119"/>
+      <c r="D96" s="92"/>
+      <c r="E96" s="92"/>
+      <c r="F96" s="92"/>
+      <c r="G96" s="92"/>
+      <c r="H96" s="92"/>
+      <c r="I96" s="92"/>
+      <c r="J96" s="92"/>
+      <c r="K96" s="92"/>
+      <c r="L96" s="92"/>
+      <c r="M96" s="92"/>
+      <c r="N96" s="92"/>
+      <c r="O96" s="92"/>
+      <c r="P96" s="92"/>
+      <c r="Q96" s="92"/>
+      <c r="R96" s="92"/>
+      <c r="S96" s="119"/>
+      <c r="T96" s="119"/>
     </row>
     <row r="97" spans="3:20">
-      <c r="C97" s="91"/>
-      <c r="D97" s="64"/>
-      <c r="E97" s="64"/>
-      <c r="F97" s="64"/>
-      <c r="G97" s="64"/>
-      <c r="H97" s="64"/>
-      <c r="I97" s="64"/>
-      <c r="J97" s="64"/>
-      <c r="K97" s="64"/>
-      <c r="L97" s="64"/>
-      <c r="M97" s="64"/>
-      <c r="N97" s="64"/>
-      <c r="O97" s="64"/>
-      <c r="P97" s="64"/>
-      <c r="Q97" s="64"/>
-      <c r="R97" s="64"/>
-      <c r="S97" s="91"/>
-      <c r="T97" s="91"/>
+      <c r="C97" s="119"/>
+      <c r="D97" s="92"/>
+      <c r="E97" s="92"/>
+      <c r="F97" s="92"/>
+      <c r="G97" s="92"/>
+      <c r="H97" s="92"/>
+      <c r="I97" s="92"/>
+      <c r="J97" s="92"/>
+      <c r="K97" s="92"/>
+      <c r="L97" s="92"/>
+      <c r="M97" s="92"/>
+      <c r="N97" s="92"/>
+      <c r="O97" s="92"/>
+      <c r="P97" s="92"/>
+      <c r="Q97" s="92"/>
+      <c r="R97" s="92"/>
+      <c r="S97" s="119"/>
+      <c r="T97" s="119"/>
     </row>
     <row r="98" spans="3:20">
-      <c r="C98" s="91"/>
-      <c r="D98" s="64"/>
-      <c r="E98" s="64"/>
-      <c r="F98" s="64"/>
-      <c r="G98" s="64"/>
-      <c r="H98" s="64"/>
-      <c r="I98" s="64"/>
-      <c r="J98" s="64"/>
-      <c r="K98" s="64"/>
-      <c r="L98" s="64"/>
-      <c r="M98" s="64"/>
-      <c r="N98" s="64"/>
-      <c r="O98" s="64"/>
-      <c r="P98" s="64"/>
-      <c r="Q98" s="64"/>
-      <c r="R98" s="64"/>
-      <c r="S98" s="91"/>
-      <c r="T98" s="91"/>
+      <c r="C98" s="119"/>
+      <c r="D98" s="92"/>
+      <c r="E98" s="92"/>
+      <c r="F98" s="92"/>
+      <c r="G98" s="92"/>
+      <c r="H98" s="92"/>
+      <c r="I98" s="92"/>
+      <c r="J98" s="92"/>
+      <c r="K98" s="92"/>
+      <c r="L98" s="92"/>
+      <c r="M98" s="92"/>
+      <c r="N98" s="92"/>
+      <c r="O98" s="92"/>
+      <c r="P98" s="92"/>
+      <c r="Q98" s="92"/>
+      <c r="R98" s="92"/>
+      <c r="S98" s="119"/>
+      <c r="T98" s="119"/>
     </row>
     <row r="99" spans="3:20">
-      <c r="C99" s="91"/>
-      <c r="D99" s="64"/>
-      <c r="E99" s="64"/>
-      <c r="F99" s="64"/>
-      <c r="G99" s="64"/>
-      <c r="H99" s="64"/>
-      <c r="I99" s="64"/>
-      <c r="J99" s="64"/>
-      <c r="K99" s="64"/>
-      <c r="L99" s="64"/>
-      <c r="M99" s="64"/>
-      <c r="N99" s="64"/>
-      <c r="O99" s="64"/>
-      <c r="P99" s="64"/>
-      <c r="Q99" s="64"/>
-      <c r="R99" s="64"/>
-      <c r="S99" s="91"/>
-      <c r="T99" s="91"/>
+      <c r="C99" s="119"/>
+      <c r="D99" s="92"/>
+      <c r="E99" s="92"/>
+      <c r="F99" s="92"/>
+      <c r="G99" s="92"/>
+      <c r="H99" s="92"/>
+      <c r="I99" s="92"/>
+      <c r="J99" s="92"/>
+      <c r="K99" s="92"/>
+      <c r="L99" s="92"/>
+      <c r="M99" s="92"/>
+      <c r="N99" s="92"/>
+      <c r="O99" s="92"/>
+      <c r="P99" s="92"/>
+      <c r="Q99" s="92"/>
+      <c r="R99" s="92"/>
+      <c r="S99" s="119"/>
+      <c r="T99" s="119"/>
     </row>
     <row r="100" spans="3:20">
-      <c r="C100" s="91"/>
-      <c r="D100" s="64"/>
-      <c r="E100" s="64"/>
-      <c r="F100" s="64"/>
-      <c r="G100" s="64"/>
-      <c r="H100" s="64"/>
-      <c r="I100" s="64"/>
-      <c r="J100" s="64"/>
-      <c r="K100" s="64"/>
-      <c r="L100" s="64"/>
-      <c r="M100" s="64"/>
-      <c r="N100" s="64"/>
-      <c r="O100" s="64"/>
-      <c r="P100" s="64"/>
-      <c r="Q100" s="64"/>
-      <c r="R100" s="64"/>
-      <c r="S100" s="91"/>
-      <c r="T100" s="91"/>
+      <c r="C100" s="119"/>
+      <c r="D100" s="92"/>
+      <c r="E100" s="92"/>
+      <c r="F100" s="92"/>
+      <c r="G100" s="92"/>
+      <c r="H100" s="92"/>
+      <c r="I100" s="92"/>
+      <c r="J100" s="92"/>
+      <c r="K100" s="92"/>
+      <c r="L100" s="92"/>
+      <c r="M100" s="92"/>
+      <c r="N100" s="92"/>
+      <c r="O100" s="92"/>
+      <c r="P100" s="92"/>
+      <c r="Q100" s="92"/>
+      <c r="R100" s="92"/>
+      <c r="S100" s="119"/>
+      <c r="T100" s="119"/>
     </row>
     <row r="101" spans="3:20">
-      <c r="C101" s="91"/>
-      <c r="D101" s="64"/>
-      <c r="E101" s="64"/>
-      <c r="F101" s="64"/>
-      <c r="G101" s="64"/>
-      <c r="H101" s="64"/>
-      <c r="I101" s="64"/>
-      <c r="J101" s="64"/>
-      <c r="K101" s="64"/>
-      <c r="L101" s="64"/>
-      <c r="M101" s="64"/>
-      <c r="N101" s="64"/>
-      <c r="O101" s="64"/>
-      <c r="P101" s="64"/>
-      <c r="Q101" s="64"/>
-      <c r="R101" s="64"/>
-      <c r="S101" s="91"/>
-      <c r="T101" s="91"/>
+      <c r="C101" s="119"/>
+      <c r="D101" s="92"/>
+      <c r="E101" s="92"/>
+      <c r="F101" s="92"/>
+      <c r="G101" s="92"/>
+      <c r="H101" s="92"/>
+      <c r="I101" s="92"/>
+      <c r="J101" s="92"/>
+      <c r="K101" s="92"/>
+      <c r="L101" s="92"/>
+      <c r="M101" s="92"/>
+      <c r="N101" s="92"/>
+      <c r="O101" s="92"/>
+      <c r="P101" s="92"/>
+      <c r="Q101" s="92"/>
+      <c r="R101" s="92"/>
+      <c r="S101" s="119"/>
+      <c r="T101" s="119"/>
     </row>
     <row r="102" spans="3:20">
-      <c r="C102" s="91"/>
-      <c r="D102" s="64"/>
-      <c r="E102" s="64"/>
-      <c r="F102" s="64"/>
-      <c r="G102" s="64"/>
-      <c r="H102" s="64"/>
-      <c r="I102" s="64"/>
-      <c r="J102" s="64"/>
-      <c r="K102" s="64"/>
-      <c r="L102" s="64"/>
-      <c r="M102" s="64"/>
-      <c r="N102" s="64"/>
-      <c r="O102" s="64"/>
-      <c r="P102" s="64"/>
-      <c r="Q102" s="64"/>
-      <c r="R102" s="64"/>
-      <c r="S102" s="91"/>
-      <c r="T102" s="91"/>
+      <c r="C102" s="119"/>
+      <c r="D102" s="92"/>
+      <c r="E102" s="92"/>
+      <c r="F102" s="92"/>
+      <c r="G102" s="92"/>
+      <c r="H102" s="92"/>
+      <c r="I102" s="92"/>
+      <c r="J102" s="92"/>
+      <c r="K102" s="92"/>
+      <c r="L102" s="92"/>
+      <c r="M102" s="92"/>
+      <c r="N102" s="92"/>
+      <c r="O102" s="92"/>
+      <c r="P102" s="92"/>
+      <c r="Q102" s="92"/>
+      <c r="R102" s="92"/>
+      <c r="S102" s="119"/>
+      <c r="T102" s="119"/>
     </row>
     <row r="103" spans="3:20">
-      <c r="C103" s="91"/>
-      <c r="D103" s="64"/>
-      <c r="E103" s="64"/>
-      <c r="F103" s="64"/>
-      <c r="G103" s="64"/>
-      <c r="H103" s="64"/>
-      <c r="I103" s="64"/>
-      <c r="J103" s="64"/>
-      <c r="K103" s="64"/>
-      <c r="L103" s="64"/>
-      <c r="M103" s="64"/>
-      <c r="N103" s="64"/>
-      <c r="O103" s="64"/>
-      <c r="P103" s="64"/>
-      <c r="Q103" s="64"/>
-      <c r="R103" s="64"/>
-      <c r="S103" s="91"/>
-      <c r="T103" s="91"/>
+      <c r="C103" s="119"/>
+      <c r="D103" s="92"/>
+      <c r="E103" s="92"/>
+      <c r="F103" s="92"/>
+      <c r="G103" s="92"/>
+      <c r="H103" s="92"/>
+      <c r="I103" s="92"/>
+      <c r="J103" s="92"/>
+      <c r="K103" s="92"/>
+      <c r="L103" s="92"/>
+      <c r="M103" s="92"/>
+      <c r="N103" s="92"/>
+      <c r="O103" s="92"/>
+      <c r="P103" s="92"/>
+      <c r="Q103" s="92"/>
+      <c r="R103" s="92"/>
+      <c r="S103" s="119"/>
+      <c r="T103" s="119"/>
     </row>
     <row r="104" spans="3:20">
-      <c r="C104" s="91"/>
-      <c r="D104" s="64"/>
-      <c r="E104" s="64"/>
-      <c r="F104" s="64"/>
-      <c r="G104" s="64"/>
-      <c r="H104" s="64"/>
-      <c r="I104" s="64"/>
-      <c r="J104" s="64"/>
-      <c r="K104" s="64"/>
-      <c r="L104" s="64"/>
-      <c r="M104" s="64"/>
-      <c r="N104" s="64"/>
-      <c r="O104" s="64"/>
-      <c r="P104" s="64"/>
-      <c r="Q104" s="64"/>
-      <c r="R104" s="64"/>
-      <c r="S104" s="91"/>
-      <c r="T104" s="91"/>
+      <c r="C104" s="119"/>
+      <c r="D104" s="92"/>
+      <c r="E104" s="92"/>
+      <c r="F104" s="92"/>
+      <c r="G104" s="92"/>
+      <c r="H104" s="92"/>
+      <c r="I104" s="92"/>
+      <c r="J104" s="92"/>
+      <c r="K104" s="92"/>
+      <c r="L104" s="92"/>
+      <c r="M104" s="92"/>
+      <c r="N104" s="92"/>
+      <c r="O104" s="92"/>
+      <c r="P104" s="92"/>
+      <c r="Q104" s="92"/>
+      <c r="R104" s="92"/>
+      <c r="S104" s="119"/>
+      <c r="T104" s="119"/>
     </row>
     <row r="105" spans="3:20">
-      <c r="C105" s="91"/>
-      <c r="D105" s="64"/>
-      <c r="E105" s="64"/>
-      <c r="F105" s="64"/>
-      <c r="G105" s="64"/>
-      <c r="H105" s="64"/>
-      <c r="I105" s="64"/>
-      <c r="J105" s="64"/>
-      <c r="K105" s="64"/>
-      <c r="L105" s="64"/>
-      <c r="M105" s="64"/>
-      <c r="N105" s="64"/>
-      <c r="O105" s="64"/>
-      <c r="P105" s="64"/>
-      <c r="Q105" s="64"/>
-      <c r="R105" s="64"/>
-      <c r="S105" s="91"/>
-      <c r="T105" s="91"/>
+      <c r="C105" s="119"/>
+      <c r="D105" s="92"/>
+      <c r="E105" s="92"/>
+      <c r="F105" s="92"/>
+      <c r="G105" s="92"/>
+      <c r="H105" s="92"/>
+      <c r="I105" s="92"/>
+      <c r="J105" s="92"/>
+      <c r="K105" s="92"/>
+      <c r="L105" s="92"/>
+      <c r="M105" s="92"/>
+      <c r="N105" s="92"/>
+      <c r="O105" s="92"/>
+      <c r="P105" s="92"/>
+      <c r="Q105" s="92"/>
+      <c r="R105" s="92"/>
+      <c r="S105" s="119"/>
+      <c r="T105" s="119"/>
     </row>
     <row r="106" spans="3:20">
-      <c r="C106" s="91"/>
-      <c r="D106" s="64"/>
-      <c r="E106" s="64"/>
-      <c r="F106" s="64"/>
-      <c r="G106" s="64"/>
-      <c r="H106" s="64"/>
-      <c r="I106" s="64"/>
-      <c r="J106" s="64"/>
-      <c r="K106" s="64"/>
-      <c r="L106" s="64"/>
-      <c r="M106" s="64"/>
-      <c r="N106" s="64"/>
-      <c r="O106" s="64"/>
-      <c r="P106" s="64"/>
-      <c r="Q106" s="64"/>
-      <c r="R106" s="64"/>
-      <c r="S106" s="91"/>
-      <c r="T106" s="91"/>
+      <c r="C106" s="119"/>
+      <c r="D106" s="92"/>
+      <c r="E106" s="92"/>
+      <c r="F106" s="92"/>
+      <c r="G106" s="92"/>
+      <c r="H106" s="92"/>
+      <c r="I106" s="92"/>
+      <c r="J106" s="92"/>
+      <c r="K106" s="92"/>
+      <c r="L106" s="92"/>
+      <c r="M106" s="92"/>
+      <c r="N106" s="92"/>
+      <c r="O106" s="92"/>
+      <c r="P106" s="92"/>
+      <c r="Q106" s="92"/>
+      <c r="R106" s="92"/>
+      <c r="S106" s="119"/>
+      <c r="T106" s="119"/>
     </row>
     <row r="107" spans="3:20">
-      <c r="C107" s="91"/>
-      <c r="D107" s="64"/>
-      <c r="E107" s="64"/>
-      <c r="F107" s="64"/>
-      <c r="G107" s="64"/>
-      <c r="H107" s="64"/>
-      <c r="I107" s="64"/>
-      <c r="J107" s="64"/>
-      <c r="K107" s="64"/>
-      <c r="L107" s="64"/>
-      <c r="M107" s="64"/>
-      <c r="N107" s="64"/>
-      <c r="O107" s="64"/>
-      <c r="P107" s="64"/>
-      <c r="Q107" s="64"/>
-      <c r="R107" s="64"/>
-      <c r="S107" s="91"/>
-      <c r="T107" s="91"/>
+      <c r="C107" s="119"/>
+      <c r="D107" s="92"/>
+      <c r="E107" s="92"/>
+      <c r="F107" s="92"/>
+      <c r="G107" s="92"/>
+      <c r="H107" s="92"/>
+      <c r="I107" s="92"/>
+      <c r="J107" s="92"/>
+      <c r="K107" s="92"/>
+      <c r="L107" s="92"/>
+      <c r="M107" s="92"/>
+      <c r="N107" s="92"/>
+      <c r="O107" s="92"/>
+      <c r="P107" s="92"/>
+      <c r="Q107" s="92"/>
+      <c r="R107" s="92"/>
+      <c r="S107" s="119"/>
+      <c r="T107" s="119"/>
     </row>
     <row r="108" spans="3:20">
-      <c r="C108" s="91"/>
-      <c r="D108" s="64"/>
-      <c r="E108" s="64"/>
-      <c r="F108" s="64"/>
-      <c r="G108" s="64"/>
-      <c r="H108" s="64"/>
-      <c r="I108" s="64"/>
-      <c r="J108" s="64"/>
-      <c r="K108" s="64"/>
-      <c r="L108" s="64"/>
-      <c r="M108" s="64"/>
-      <c r="N108" s="64"/>
-      <c r="O108" s="64"/>
-      <c r="P108" s="64"/>
-      <c r="Q108" s="64"/>
-      <c r="R108" s="64"/>
-      <c r="S108" s="91"/>
-      <c r="T108" s="91"/>
+      <c r="C108" s="119"/>
+      <c r="D108" s="92"/>
+      <c r="E108" s="92"/>
+      <c r="F108" s="92"/>
+      <c r="G108" s="92"/>
+      <c r="H108" s="92"/>
+      <c r="I108" s="92"/>
+      <c r="J108" s="92"/>
+      <c r="K108" s="92"/>
+      <c r="L108" s="92"/>
+      <c r="M108" s="92"/>
+      <c r="N108" s="92"/>
+      <c r="O108" s="92"/>
+      <c r="P108" s="92"/>
+      <c r="Q108" s="92"/>
+      <c r="R108" s="92"/>
+      <c r="S108" s="119"/>
+      <c r="T108" s="119"/>
     </row>
     <row r="109" spans="4:18">
-      <c r="D109" s="35"/>
-      <c r="E109" s="35"/>
-      <c r="F109" s="35"/>
-      <c r="G109" s="35"/>
-      <c r="H109" s="35"/>
-      <c r="I109" s="35"/>
-      <c r="J109" s="35"/>
-      <c r="K109" s="35"/>
-      <c r="L109" s="35"/>
-      <c r="M109" s="35"/>
-      <c r="N109" s="35"/>
-      <c r="O109" s="35"/>
-      <c r="P109" s="35"/>
-      <c r="Q109" s="35"/>
-      <c r="R109" s="35"/>
+      <c r="D109" s="63"/>
+      <c r="E109" s="63"/>
+      <c r="F109" s="63"/>
+      <c r="G109" s="63"/>
+      <c r="H109" s="63"/>
+      <c r="I109" s="63"/>
+      <c r="J109" s="63"/>
+      <c r="K109" s="63"/>
+      <c r="L109" s="63"/>
+      <c r="M109" s="63"/>
+      <c r="N109" s="63"/>
+      <c r="O109" s="63"/>
+      <c r="P109" s="63"/>
+      <c r="Q109" s="63"/>
+      <c r="R109" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.36666666666667" customWidth="1"/>
+    <col min="2" max="2" width="4.36666666666667" customWidth="1"/>
+    <col min="3" max="3" width="3.09166666666667" customWidth="1"/>
+    <col min="4" max="4" width="77.0916666666667" customWidth="1"/>
+    <col min="5" max="7" width="2.36666666666667" customWidth="1"/>
+    <col min="9" max="9" width="3.36666666666667" customWidth="1"/>
+    <col min="10" max="10" width="3.45" customWidth="1"/>
+    <col min="11" max="11" width="3.36666666666667" customWidth="1"/>
+    <col min="12" max="19" width="2.36666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="33">
+        <v>1</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="33">
+        <v>1</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="33">
+        <v>3</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="33">
+        <v>3</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="33">
+        <v>6</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="33">
+        <v>6</v>
+      </c>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="36">
+        <v>1</v>
+      </c>
+      <c r="B4" s="36">
+        <v>-25</v>
+      </c>
+      <c r="C4" s="36">
+        <v>1</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="36">
+        <v>1</v>
+      </c>
+      <c r="J4" s="36">
+        <v>-25</v>
+      </c>
+      <c r="K4" s="36">
+        <v>1</v>
+      </c>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="36">
+        <v>2</v>
+      </c>
+      <c r="B5" s="36">
+        <v>-24</v>
+      </c>
+      <c r="C5" s="39">
+        <v>2</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="36">
+        <v>2</v>
+      </c>
+      <c r="J5" s="36">
+        <v>-24</v>
+      </c>
+      <c r="K5" s="39">
+        <v>2</v>
+      </c>
+      <c r="L5" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="53"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="36">
+        <v>3</v>
+      </c>
+      <c r="B6" s="36">
+        <v>-23</v>
+      </c>
+      <c r="C6" s="36">
+        <v>3</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="36">
+        <v>3</v>
+      </c>
+      <c r="J6" s="36">
+        <v>-23</v>
+      </c>
+      <c r="K6" s="36">
+        <v>3</v>
+      </c>
+      <c r="L6" s="51">
+        <v>1</v>
+      </c>
+      <c r="M6" s="51">
+        <v>1</v>
+      </c>
+      <c r="N6" s="51">
+        <v>1</v>
+      </c>
+      <c r="O6" s="51">
+        <v>1</v>
+      </c>
+      <c r="P6" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="S6" s="38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="36">
+        <v>4</v>
+      </c>
+      <c r="B7" s="36">
+        <v>-22</v>
+      </c>
+      <c r="C7" s="36">
+        <v>4</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="36">
+        <v>4</v>
+      </c>
+      <c r="J7" s="36">
+        <v>-22</v>
+      </c>
+      <c r="K7" s="36">
+        <v>4</v>
+      </c>
+      <c r="L7" s="51">
+        <v>1</v>
+      </c>
+      <c r="M7" s="51">
+        <v>0</v>
+      </c>
+      <c r="N7" s="51">
+        <v>1</v>
+      </c>
+      <c r="O7" s="51">
+        <v>1</v>
+      </c>
+      <c r="P7" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="36">
+        <v>5</v>
+      </c>
+      <c r="B8" s="36">
+        <v>-21</v>
+      </c>
+      <c r="C8" s="36">
+        <v>5</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="36">
+        <v>5</v>
+      </c>
+      <c r="J8" s="36">
+        <v>-21</v>
+      </c>
+      <c r="K8" s="36">
+        <v>5</v>
+      </c>
+      <c r="L8" s="51">
+        <v>1</v>
+      </c>
+      <c r="M8" s="51">
+        <v>1</v>
+      </c>
+      <c r="N8" s="51">
+        <v>1</v>
+      </c>
+      <c r="O8" s="51">
+        <v>0</v>
+      </c>
+      <c r="P8" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="R8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" s="40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="36">
+        <v>6</v>
+      </c>
+      <c r="B9" s="36">
+        <v>-20</v>
+      </c>
+      <c r="C9" s="36">
+        <v>6</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="36">
+        <v>6</v>
+      </c>
+      <c r="J9" s="36">
+        <v>-20</v>
+      </c>
+      <c r="K9" s="36">
+        <v>6</v>
+      </c>
+      <c r="L9" s="51">
+        <v>1</v>
+      </c>
+      <c r="M9" s="51">
+        <v>1</v>
+      </c>
+      <c r="N9" s="51">
+        <v>1</v>
+      </c>
+      <c r="O9" s="51">
+        <v>1</v>
+      </c>
+      <c r="P9" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="R9" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="S9" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="36">
+        <v>7</v>
+      </c>
+      <c r="B10" s="36">
+        <v>-19</v>
+      </c>
+      <c r="C10" s="36">
+        <v>7</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="36">
+        <v>7</v>
+      </c>
+      <c r="J10" s="36">
+        <v>-19</v>
+      </c>
+      <c r="K10" s="36">
+        <v>7</v>
+      </c>
+      <c r="L10" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="55"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="36">
+        <v>8</v>
+      </c>
+      <c r="B11" s="36">
+        <v>-18</v>
+      </c>
+      <c r="C11" s="36">
+        <v>8</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="36">
+        <v>8</v>
+      </c>
+      <c r="J11" s="36">
+        <v>-18</v>
+      </c>
+      <c r="K11" s="36">
+        <v>8</v>
+      </c>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="R11" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="S11" s="40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="36">
+        <v>9</v>
+      </c>
+      <c r="B12" s="36">
+        <v>-17</v>
+      </c>
+      <c r="C12" s="42">
+        <v>9</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="36">
+        <v>9</v>
+      </c>
+      <c r="J12" s="36">
+        <v>-17</v>
+      </c>
+      <c r="K12" s="42">
+        <v>9</v>
+      </c>
+      <c r="L12" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="53"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="36">
+        <v>10</v>
+      </c>
+      <c r="B13" s="36">
+        <v>-16</v>
+      </c>
+      <c r="C13" s="36">
+        <v>10</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="36">
+        <v>10</v>
+      </c>
+      <c r="J13" s="36">
+        <v>-16</v>
+      </c>
+      <c r="K13" s="36">
+        <v>10</v>
+      </c>
+      <c r="L13" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="N13" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q13" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="R13" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="S13" s="40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="36">
+        <v>11</v>
+      </c>
+      <c r="B14" s="36">
+        <v>-15</v>
+      </c>
+      <c r="C14" s="43">
+        <v>11</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="36">
+        <v>11</v>
+      </c>
+      <c r="J14" s="36">
+        <v>-15</v>
+      </c>
+      <c r="K14" s="43">
+        <v>11</v>
+      </c>
+      <c r="L14" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="N14" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="36">
+        <v>12</v>
+      </c>
+      <c r="B15" s="36">
+        <v>-14</v>
+      </c>
+      <c r="C15" s="43">
+        <v>12</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="36">
+        <v>12</v>
+      </c>
+      <c r="J15" s="36">
+        <v>-14</v>
+      </c>
+      <c r="K15" s="43">
+        <v>12</v>
+      </c>
+      <c r="L15" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="N15" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="O15" s="51">
+        <v>1</v>
+      </c>
+      <c r="P15" s="51">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="36">
+        <v>13</v>
+      </c>
+      <c r="B16" s="36">
+        <v>-13</v>
+      </c>
+      <c r="C16" s="43">
+        <v>13</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="36">
+        <v>13</v>
+      </c>
+      <c r="J16" s="36">
+        <v>-13</v>
+      </c>
+      <c r="K16" s="43">
+        <v>13</v>
+      </c>
+      <c r="L16" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" s="51">
+        <v>7</v>
+      </c>
+      <c r="N16" s="51">
+        <v>2</v>
+      </c>
+      <c r="O16" s="51">
+        <v>5</v>
+      </c>
+      <c r="P16" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="R16" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="S16" s="44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="36">
+        <v>14</v>
+      </c>
+      <c r="B17" s="36">
+        <v>-12</v>
+      </c>
+      <c r="C17" s="43">
+        <v>14</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="36">
+        <v>14</v>
+      </c>
+      <c r="J17" s="36">
+        <v>-12</v>
+      </c>
+      <c r="K17" s="43">
+        <v>14</v>
+      </c>
+      <c r="L17" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="M17" s="55"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="36">
+        <v>15</v>
+      </c>
+      <c r="B18" s="36">
+        <v>-11</v>
+      </c>
+      <c r="C18" s="43">
+        <v>15</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="36">
+        <v>15</v>
+      </c>
+      <c r="J18" s="36">
+        <v>-11</v>
+      </c>
+      <c r="K18" s="43">
+        <v>15</v>
+      </c>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="R18" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="S18" s="45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="36">
+        <v>16</v>
+      </c>
+      <c r="B19" s="36">
+        <v>-10</v>
+      </c>
+      <c r="C19" s="43">
+        <v>16</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="36">
+        <v>16</v>
+      </c>
+      <c r="J19" s="36">
+        <v>-10</v>
+      </c>
+      <c r="K19" s="43">
+        <v>16</v>
+      </c>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="R19" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="S19" s="45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="36">
+        <v>17</v>
+      </c>
+      <c r="B20" s="36">
+        <v>-9</v>
+      </c>
+      <c r="C20" s="36">
+        <v>17</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="36">
+        <v>17</v>
+      </c>
+      <c r="J20" s="36">
+        <v>-9</v>
+      </c>
+      <c r="K20" s="36">
+        <v>17</v>
+      </c>
+      <c r="L20" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="36">
+        <v>18</v>
+      </c>
+      <c r="B21" s="36">
+        <v>-8</v>
+      </c>
+      <c r="C21" s="36">
+        <v>18</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="36">
+        <v>18</v>
+      </c>
+      <c r="J21" s="36">
+        <v>-8</v>
+      </c>
+      <c r="K21" s="36">
+        <v>18</v>
+      </c>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="R21" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="S21" s="45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="36">
+        <v>19</v>
+      </c>
+      <c r="B22" s="36">
+        <v>-7</v>
+      </c>
+      <c r="C22" s="36">
+        <v>19</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="36">
+        <v>19</v>
+      </c>
+      <c r="J22" s="36">
+        <v>-7</v>
+      </c>
+      <c r="K22" s="36">
+        <v>19</v>
+      </c>
+      <c r="L22" s="57"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="36">
+        <v>20</v>
+      </c>
+      <c r="B23" s="36">
+        <v>-6</v>
+      </c>
+      <c r="C23" s="36">
+        <v>20</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="36">
+        <v>20</v>
+      </c>
+      <c r="J23" s="36">
+        <v>-6</v>
+      </c>
+      <c r="K23" s="36">
+        <v>20</v>
+      </c>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="R23" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="S23" s="45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="36">
+        <v>21</v>
+      </c>
+      <c r="B24" s="36">
+        <v>-5</v>
+      </c>
+      <c r="C24" s="43">
+        <v>21</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="36">
+        <v>21</v>
+      </c>
+      <c r="J24" s="36">
+        <v>-5</v>
+      </c>
+      <c r="K24" s="43">
+        <v>21</v>
+      </c>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="36">
+        <v>22</v>
+      </c>
+      <c r="B25" s="36">
+        <v>-4</v>
+      </c>
+      <c r="C25" s="43">
+        <v>22</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="36">
+        <v>22</v>
+      </c>
+      <c r="J25" s="36">
+        <v>-4</v>
+      </c>
+      <c r="K25" s="43">
+        <v>22</v>
+      </c>
+      <c r="L25" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="R25" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="S25" s="46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="36">
+        <v>23</v>
+      </c>
+      <c r="B26" s="36">
+        <v>-3</v>
+      </c>
+      <c r="C26" s="43">
+        <v>23</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="36">
+        <v>23</v>
+      </c>
+      <c r="J26" s="36">
+        <v>-3</v>
+      </c>
+      <c r="K26" s="43">
+        <v>23</v>
+      </c>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26" s="46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="36">
+        <v>24</v>
+      </c>
+      <c r="B27" s="36">
+        <v>-2</v>
+      </c>
+      <c r="C27" s="43">
+        <v>24</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="36">
+        <v>24</v>
+      </c>
+      <c r="J27" s="36">
+        <v>-2</v>
+      </c>
+      <c r="K27" s="43">
+        <v>24</v>
+      </c>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="R27" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="S27" s="46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="36">
+        <v>25</v>
+      </c>
+      <c r="B28" s="36">
+        <v>-1</v>
+      </c>
+      <c r="C28" s="43">
+        <v>25</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="36">
+        <v>25</v>
+      </c>
+      <c r="J28" s="36">
+        <v>-1</v>
+      </c>
+      <c r="K28" s="59">
+        <v>25</v>
+      </c>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="R28" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="S28" s="46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="36">
+        <v>26</v>
+      </c>
+      <c r="B29" s="36">
+        <v>0</v>
+      </c>
+      <c r="C29" s="47">
+        <v>26</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="36">
+        <v>26</v>
+      </c>
+      <c r="J29" s="36">
+        <v>0</v>
+      </c>
+      <c r="K29" s="59">
+        <v>26</v>
+      </c>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29" s="48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="36">
+        <v>27</v>
+      </c>
+      <c r="B30" s="36">
+        <v>1</v>
+      </c>
+      <c r="C30" s="36">
+        <v>27</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="36">
+        <v>27</v>
+      </c>
+      <c r="J30" s="36">
+        <v>1</v>
+      </c>
+      <c r="K30" s="36">
+        <v>27</v>
+      </c>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="R30" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="S30" s="48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="I31" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="50"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="I32" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="I33" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="K33" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L17:M17"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -6369,8 +6369,8 @@
   <sheetPr/>
   <dimension ref="B2:V70"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="W47" sqref="W47"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7208,7 +7208,7 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="17" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="2:22">
@@ -7817,7 +7817,7 @@
       <c r="T57" s="10"/>
       <c r="U57" s="10"/>
       <c r="V57" s="17" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="2:22">
@@ -8243,7 +8243,7 @@
   <sheetPr/>
   <dimension ref="B3:AC45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
@@ -8530,7 +8530,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="17" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:22">
@@ -9195,7 +9195,7 @@
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
       <c r="V32" s="17" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="2:22">

--- a/Axcels/camery.xlsx
+++ b/Axcels/camery.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27030" windowHeight="11475" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="27765" windowHeight="13650" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="fonk" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="eydix" sheetId="4" r:id="rId3"/>
     <sheet name="komet-Keset" sheetId="6" r:id="rId4"/>
     <sheet name="fond-sheets" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137">
   <si>
     <t xml:space="preserve"> Z</t>
   </si>
@@ -337,16 +338,124 @@
   <si>
     <t xml:space="preserve">    CartItem Item = Items.Find(c =&gt; (c.ProductID == productID) &amp;&amp; (c.ProductName == "ABS001"));</t>
   </si>
+  <si>
+    <t>public static int Compare( string strA, string strB ) 比较两个指定的 string 对象，并返回一个表示它们在排列顺序中相对位置的整数。该方法区分大小写。</t>
+  </si>
+  <si>
+    <t>public static int Compare( string strA, string strB, bool ignoreCase ) 比较两个指定的 string 对象，并返回一个表示它们在排列顺序中相对位置的整数。但是，如果布尔参数为真时，该方法不区分大小写。</t>
+  </si>
+  <si>
+    <t>public static string Concat( string str0, string str1 ) 连接两个 string 对象。</t>
+  </si>
+  <si>
+    <t>public static string Concat( string str0, string str1, string str2 ) 连接三个 string 对象。</t>
+  </si>
+  <si>
+    <t>public static string Concat( string str0, string str1, string str2, string str3 ) 连接四个 string 对象。</t>
+  </si>
+  <si>
+    <t>public bool Contains( string value ) 返回一个表示指定 string 对象是否出现在字符串中的值。</t>
+  </si>
+  <si>
+    <t>public static string Copy( string str ) 创建一个与指定字符串具有相同值的新的 String 对象。</t>
+  </si>
+  <si>
+    <t>public void CopyTo( int sourceIndex, char[] destination, int destinationIndex, int count ) 从 string 对象的指定位置开始复制指定数量的字符到 Unicode 字符数组中的指定位置。</t>
+  </si>
+  <si>
+    <t>public bool EndsWith( string value ) 判断 string 对象的结尾是否匹配指定的字符串。</t>
+  </si>
+  <si>
+    <t>public bool Equals( string value ) 判断当前的 string 对象是否与指定的 string 对象具有相同的值。</t>
+  </si>
+  <si>
+    <t>public static bool Equals( string a, string b ) 判断两个指定的 string 对象是否具有相同的值。</t>
+  </si>
+  <si>
+    <t>public static string Format( string format, Object arg0 ) 把指定字符串中一个或多个格式项替换为指定对象的字符串表示形式。</t>
+  </si>
+  <si>
+    <t>public int IndexOf( char value ) 返回指定 Unicode 字符在当前字符串中第一次出现的索引，索引从 0 开始。</t>
+  </si>
+  <si>
+    <t>public int IndexOf( string value ) 返回指定字符串在该实例中第一次出现的索引，索引从 0 开始。</t>
+  </si>
+  <si>
+    <t>public int IndexOf( char value, int startIndex ) 返回指定 Unicode 字符从该字符串中指定字符位置开始搜索第一次出现的索引，索引从 0 开始。</t>
+  </si>
+  <si>
+    <t>public int IndexOf( string value, int startIndex ) 返回指定字符串从该实例中指定字符位置开始搜索第一次出现的索引，索引从 0 开始。</t>
+  </si>
+  <si>
+    <t>public int IndexOfAny( char[] anyOf ) 返回某一个指定的 Unicode 字符数组中任意字符在该实例中第一次出现的索引，索引从 0 开始。</t>
+  </si>
+  <si>
+    <t>public int IndexOfAny( char[] anyOf, int startIndex ) 返回某一个指定的 Unicode 字符数组中任意字符从该实例中指定字符位置开始搜索第一次出现的索引，索引从 0 开始。</t>
+  </si>
+  <si>
+    <t>public string Insert( int startIndex, string value ) 返回一个新的字符串，其中，指定的字符串被插入在当前 string 对象的指定索引位置。</t>
+  </si>
+  <si>
+    <t>public static bool IsNullOrEmpty( string value ) 指示指定的字符串是否为 null 或者是否为一个空的字符串。</t>
+  </si>
+  <si>
+    <t>public static string Join( string separator, string[] value ) 连接一个字符串数组中的所有元素，使用指定的分隔符分隔每个元素。</t>
+  </si>
+  <si>
+    <t>public static string Join( string separator, string[] value, int startIndex, int count ) 连接接一个字符串数组中的指定位置开始的指定元素，使用指定的分隔符分隔每个元素。</t>
+  </si>
+  <si>
+    <t>public int LastIndexOf( char value ) 返回指定 Unicode 字符在当前 string 对象中最后一次出现的索引位置，索引从 0 开始。</t>
+  </si>
+  <si>
+    <t>public int LastIndexOf( string value ) 返回指定字符串在当前 string 对象中最后一次出现的索引位置，索引从 0 开始。</t>
+  </si>
+  <si>
+    <t>public string Remove( int startIndex ) 移除当前实例中的所有字符，从指定位置开始，一直到最后一个位置为止，并返回字符串。</t>
+  </si>
+  <si>
+    <t>public string Remove( int startIndex, int count ) 从当前字符串的指定位置开始移除指定数量的字符，并返回字符串。</t>
+  </si>
+  <si>
+    <t>public string Replace( char oldChar, char newChar ) 把当前 string 对象中，所有指定的 Unicode 字符替换为另一个指定的 Unicode 字符，并返回新的字符串。</t>
+  </si>
+  <si>
+    <t>public string Replace( string oldValue, string newValue ) 把当前 string 对象中，所有指定的字符串替换为另一个指定的字符串，并返回新的字符串。</t>
+  </si>
+  <si>
+    <t>public string[] Split( params char[] separator ) 返回一个字符串数组，包含当前的 string 对象中的子字符串，子字符串是使用指定的 Unicode 字符数组中的元素进行分隔的。</t>
+  </si>
+  <si>
+    <t>public string[] Split( char[] separator, int count ) 返回一个字符串数组，包含当前的 string 对象中的子字符串，子字符串是使用指定的 Unicode 字符数组中的元素进行分隔的。int 参数指定要返回的子字符串的最大数目。</t>
+  </si>
+  <si>
+    <t>public bool StartsWith( string value ) 判断字符串实例的开头是否匹配指定的字符串。</t>
+  </si>
+  <si>
+    <t>public char[] ToCharArray()返回一个带有当前 string 对象中所有字符的 Unicode 字符数组。</t>
+  </si>
+  <si>
+    <t>public char[] ToCharArray( int startIndex, int length ) 返回一个带有当前 string 对象中所有字符的 Unicode 字符数组，从指定的索引开始，直到指定的长度为止。</t>
+  </si>
+  <si>
+    <t>public string ToLower()把字符串转换为小写并返回。</t>
+  </si>
+  <si>
+    <t>public string ToUpper()把字符串转换为大写并返回。</t>
+  </si>
+  <si>
+    <t>public string Trim()移除当前 String 对象中的所有前导空白字符和后置空白字符。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -453,6 +562,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -463,29 +595,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,16 +624,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -532,12 +640,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -547,7 +656,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,7 +927,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,37 +951,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,7 +993,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,43 +1035,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,17 +1101,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1011,41 +1125,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1066,6 +1145,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1081,11 +1184,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1097,10 +1206,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="54" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="46" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1109,7 +1218,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1130,16 +1239,16 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1148,40 +1257,40 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="48" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="44" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="50" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="50" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="44" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1190,49 +1299,49 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6369,8 +6478,8 @@
   <sheetPr/>
   <dimension ref="B2:V70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:U17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9613,4 +9722,312 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="220.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>